--- a/00.metadata/03.seq_analysis/sample_sequencing_metadata_all.xlsx
+++ b/00.metadata/03.seq_analysis/sample_sequencing_metadata_all.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uflorida-my.sharepoint.com/personal/kasey_pham_ufl_edu/Documents/Grad School Documents/Projects/euc_hyb_reseq/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uflorida-my.sharepoint.com/personal/kasey_pham_ufl_edu/Documents/Grad School Documents/Projects/eucalyptus-hybrid-resequencing/00.metadata/03.seq_analysis/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="0" documentId="8_{35C55A05-1188-4259-9866-A63562941D91}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1296" yWindow="-108" windowWidth="21852" windowHeight="13176" xr2:uid="{B1AA3AE0-9D36-4BF5-A476-7CE479B05B46}"/>
+    <workbookView xWindow="1308" yWindow="-108" windowWidth="21840" windowHeight="13176" xr2:uid="{B1AA3AE0-9D36-4BF5-A476-7CE479B05B46}"/>
   </bookViews>
   <sheets>
     <sheet name="full" sheetId="3" r:id="rId1"/>

--- a/00.metadata/03.seq_analysis/sample_sequencing_metadata_all.xlsx
+++ b/00.metadata/03.seq_analysis/sample_sequencing_metadata_all.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uflorida-my.sharepoint.com/personal/kasey_pham_ufl_edu/Documents/Grad School Documents/Projects/eucalyptus-hybrid-resequencing/00.metadata/03.seq_analysis/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{35C55A05-1188-4259-9866-A63562941D91}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="8_{35C55A05-1188-4259-9866-A63562941D91}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C093BF04-A0D7-44E0-B74D-C674A672279C}"/>
   <bookViews>
-    <workbookView xWindow="1308" yWindow="-108" windowWidth="21840" windowHeight="13176" xr2:uid="{B1AA3AE0-9D36-4BF5-A476-7CE479B05B46}"/>
+    <workbookView xWindow="-20610" yWindow="-7275" windowWidth="20730" windowHeight="11760" xr2:uid="{B1AA3AE0-9D36-4BF5-A476-7CE479B05B46}"/>
   </bookViews>
   <sheets>
     <sheet name="full" sheetId="3" r:id="rId1"/>
@@ -1710,7 +1710,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B638F70A-4310-4A91-8033-582E77929E06}">
   <dimension ref="A1:T161"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H8" sqref="H8"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -1789,7 +1791,7 @@
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>140</v>
+        <v>166</v>
       </c>
       <c r="B2" t="s">
         <v>0</v>
@@ -1804,16 +1806,16 @@
         <v>2</v>
       </c>
       <c r="F2" t="s">
-        <v>3</v>
+        <v>32</v>
       </c>
       <c r="G2">
         <v>536</v>
       </c>
       <c r="H2">
-        <v>97</v>
+        <v>124</v>
       </c>
       <c r="I2" t="s">
-        <v>4</v>
+        <v>33</v>
       </c>
       <c r="J2" t="s">
         <v>5</v>
@@ -1834,16 +1836,16 @@
         <v>4</v>
       </c>
       <c r="P2" t="s">
-        <v>312</v>
+        <v>341</v>
       </c>
       <c r="Q2">
-        <v>4190</v>
+        <v>1043</v>
       </c>
       <c r="R2" t="s">
         <v>313</v>
       </c>
       <c r="S2" t="s">
-        <v>314</v>
+        <v>342</v>
       </c>
       <c r="T2" t="s">
         <v>315</v>
@@ -1851,7 +1853,7 @@
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>141</v>
+        <v>167</v>
       </c>
       <c r="B3" t="s">
         <v>0</v>
@@ -1866,16 +1868,16 @@
         <v>2</v>
       </c>
       <c r="F3" t="s">
-        <v>3</v>
+        <v>32</v>
       </c>
       <c r="G3">
         <v>536</v>
       </c>
       <c r="H3">
-        <v>97</v>
+        <v>124</v>
       </c>
       <c r="I3" t="s">
-        <v>4</v>
+        <v>33</v>
       </c>
       <c r="J3" t="s">
         <v>5</v>
@@ -1896,16 +1898,16 @@
         <v>4</v>
       </c>
       <c r="P3" t="s">
-        <v>312</v>
+        <v>341</v>
       </c>
       <c r="Q3">
-        <v>4190</v>
+        <v>1043</v>
       </c>
       <c r="R3" t="s">
         <v>313</v>
       </c>
       <c r="S3" t="s">
-        <v>314</v>
+        <v>342</v>
       </c>
       <c r="T3" t="s">
         <v>315</v>
@@ -1913,13 +1915,13 @@
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>142</v>
+        <v>246</v>
       </c>
       <c r="B4" t="s">
         <v>0</v>
       </c>
       <c r="C4" t="s">
-        <v>1</v>
+        <v>86</v>
       </c>
       <c r="D4" t="s">
         <v>128</v>
@@ -1928,46 +1930,46 @@
         <v>2</v>
       </c>
       <c r="F4" t="s">
-        <v>8</v>
+        <v>32</v>
       </c>
       <c r="G4">
         <v>536</v>
       </c>
       <c r="H4">
-        <v>98</v>
+        <v>124</v>
       </c>
       <c r="I4" t="s">
-        <v>9</v>
+        <v>101</v>
       </c>
       <c r="J4" t="s">
-        <v>5</v>
+        <v>88</v>
       </c>
       <c r="K4" t="s">
         <v>6</v>
       </c>
       <c r="L4" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="M4">
-        <v>113</v>
+        <v>18</v>
       </c>
       <c r="N4" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="O4">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="P4" t="s">
-        <v>316</v>
+        <v>341</v>
       </c>
       <c r="Q4">
-        <v>1119</v>
+        <v>1043</v>
       </c>
       <c r="R4" t="s">
         <v>313</v>
       </c>
       <c r="S4" t="s">
-        <v>317</v>
+        <v>342</v>
       </c>
       <c r="T4" t="s">
         <v>315</v>
@@ -1975,13 +1977,13 @@
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>143</v>
+        <v>247</v>
       </c>
       <c r="B5" t="s">
         <v>0</v>
       </c>
       <c r="C5" t="s">
-        <v>1</v>
+        <v>86</v>
       </c>
       <c r="D5" t="s">
         <v>128</v>
@@ -1990,46 +1992,46 @@
         <v>2</v>
       </c>
       <c r="F5" t="s">
-        <v>8</v>
+        <v>32</v>
       </c>
       <c r="G5">
         <v>536</v>
       </c>
       <c r="H5">
-        <v>98</v>
+        <v>124</v>
       </c>
       <c r="I5" t="s">
-        <v>9</v>
+        <v>101</v>
       </c>
       <c r="J5" t="s">
-        <v>5</v>
+        <v>88</v>
       </c>
       <c r="K5" t="s">
         <v>7</v>
       </c>
       <c r="L5" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="M5">
-        <v>113</v>
+        <v>18</v>
       </c>
       <c r="N5" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="O5">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="P5" t="s">
-        <v>316</v>
+        <v>341</v>
       </c>
       <c r="Q5">
-        <v>1119</v>
+        <v>1043</v>
       </c>
       <c r="R5" t="s">
         <v>313</v>
       </c>
       <c r="S5" t="s">
-        <v>317</v>
+        <v>342</v>
       </c>
       <c r="T5" t="s">
         <v>315</v>
@@ -2037,7 +2039,7 @@
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>144</v>
+        <v>194</v>
       </c>
       <c r="B6" t="s">
         <v>0</v>
@@ -2052,16 +2054,16 @@
         <v>2</v>
       </c>
       <c r="F6" t="s">
-        <v>10</v>
+        <v>60</v>
       </c>
       <c r="G6">
         <v>536</v>
       </c>
       <c r="H6">
-        <v>99</v>
+        <v>159</v>
       </c>
       <c r="I6" t="s">
-        <v>11</v>
+        <v>61</v>
       </c>
       <c r="J6" t="s">
         <v>5</v>
@@ -2082,16 +2084,16 @@
         <v>4</v>
       </c>
       <c r="P6" t="s">
-        <v>318</v>
+        <v>373</v>
       </c>
       <c r="Q6">
-        <v>6015</v>
+        <v>1051</v>
       </c>
       <c r="R6" t="s">
         <v>313</v>
       </c>
       <c r="S6" t="s">
-        <v>319</v>
+        <v>374</v>
       </c>
       <c r="T6" t="s">
         <v>315</v>
@@ -2099,7 +2101,7 @@
     </row>
     <row r="7" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>145</v>
+        <v>195</v>
       </c>
       <c r="B7" t="s">
         <v>0</v>
@@ -2114,16 +2116,16 @@
         <v>2</v>
       </c>
       <c r="F7" t="s">
-        <v>10</v>
+        <v>60</v>
       </c>
       <c r="G7">
         <v>536</v>
       </c>
       <c r="H7">
-        <v>99</v>
+        <v>159</v>
       </c>
       <c r="I7" t="s">
-        <v>11</v>
+        <v>61</v>
       </c>
       <c r="J7" t="s">
         <v>5</v>
@@ -2144,16 +2146,16 @@
         <v>4</v>
       </c>
       <c r="P7" t="s">
-        <v>318</v>
+        <v>373</v>
       </c>
       <c r="Q7">
-        <v>6015</v>
+        <v>1051</v>
       </c>
       <c r="R7" t="s">
         <v>313</v>
       </c>
       <c r="S7" t="s">
-        <v>319</v>
+        <v>374</v>
       </c>
       <c r="T7" t="s">
         <v>315</v>
@@ -2161,13 +2163,13 @@
     </row>
     <row r="8" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>146</v>
+        <v>274</v>
       </c>
       <c r="B8" t="s">
         <v>0</v>
       </c>
       <c r="C8" t="s">
-        <v>1</v>
+        <v>86</v>
       </c>
       <c r="D8" t="s">
         <v>128</v>
@@ -2176,46 +2178,46 @@
         <v>2</v>
       </c>
       <c r="F8" t="s">
-        <v>12</v>
+        <v>60</v>
       </c>
       <c r="G8">
         <v>536</v>
       </c>
       <c r="H8">
-        <v>100</v>
+        <v>159</v>
       </c>
       <c r="I8" t="s">
-        <v>13</v>
+        <v>115</v>
       </c>
       <c r="J8" t="s">
-        <v>5</v>
+        <v>88</v>
       </c>
       <c r="K8" t="s">
         <v>6</v>
       </c>
       <c r="L8" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="M8">
-        <v>113</v>
+        <v>18</v>
       </c>
       <c r="N8" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="O8">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="P8" t="s">
-        <v>320</v>
+        <v>373</v>
       </c>
       <c r="Q8">
-        <v>4118</v>
+        <v>1051</v>
       </c>
       <c r="R8" t="s">
         <v>313</v>
       </c>
       <c r="S8" t="s">
-        <v>321</v>
+        <v>374</v>
       </c>
       <c r="T8" t="s">
         <v>315</v>
@@ -2223,13 +2225,13 @@
     </row>
     <row r="9" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>147</v>
+        <v>275</v>
       </c>
       <c r="B9" t="s">
         <v>0</v>
       </c>
       <c r="C9" t="s">
-        <v>1</v>
+        <v>86</v>
       </c>
       <c r="D9" t="s">
         <v>128</v>
@@ -2238,46 +2240,46 @@
         <v>2</v>
       </c>
       <c r="F9" t="s">
-        <v>12</v>
+        <v>60</v>
       </c>
       <c r="G9">
         <v>536</v>
       </c>
       <c r="H9">
-        <v>100</v>
+        <v>159</v>
       </c>
       <c r="I9" t="s">
-        <v>13</v>
+        <v>115</v>
       </c>
       <c r="J9" t="s">
-        <v>5</v>
+        <v>88</v>
       </c>
       <c r="K9" t="s">
         <v>7</v>
       </c>
       <c r="L9" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="M9">
-        <v>113</v>
+        <v>18</v>
       </c>
       <c r="N9" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="O9">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="P9" t="s">
-        <v>320</v>
+        <v>373</v>
       </c>
       <c r="Q9">
-        <v>4118</v>
+        <v>1051</v>
       </c>
       <c r="R9" t="s">
         <v>313</v>
       </c>
       <c r="S9" t="s">
-        <v>321</v>
+        <v>374</v>
       </c>
       <c r="T9" t="s">
         <v>315</v>
@@ -2285,7 +2287,7 @@
     </row>
     <row r="10" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>148</v>
+        <v>210</v>
       </c>
       <c r="B10" t="s">
         <v>0</v>
@@ -2300,16 +2302,16 @@
         <v>2</v>
       </c>
       <c r="F10" t="s">
-        <v>14</v>
+        <v>76</v>
       </c>
       <c r="G10">
         <v>536</v>
       </c>
       <c r="H10">
-        <v>101</v>
+        <v>181</v>
       </c>
       <c r="I10" t="s">
-        <v>15</v>
+        <v>77</v>
       </c>
       <c r="J10" t="s">
         <v>5</v>
@@ -2330,16 +2332,16 @@
         <v>4</v>
       </c>
       <c r="P10" t="s">
-        <v>322</v>
-      </c>
-      <c r="Q10" t="s">
-        <v>323</v>
+        <v>390</v>
+      </c>
+      <c r="Q10">
+        <v>1056</v>
       </c>
       <c r="R10" t="s">
         <v>313</v>
       </c>
       <c r="S10" t="s">
-        <v>324</v>
+        <v>391</v>
       </c>
       <c r="T10" t="s">
         <v>315</v>
@@ -2347,7 +2349,7 @@
     </row>
     <row r="11" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>149</v>
+        <v>211</v>
       </c>
       <c r="B11" t="s">
         <v>0</v>
@@ -2362,16 +2364,16 @@
         <v>2</v>
       </c>
       <c r="F11" t="s">
-        <v>14</v>
+        <v>76</v>
       </c>
       <c r="G11">
         <v>536</v>
       </c>
       <c r="H11">
-        <v>101</v>
+        <v>181</v>
       </c>
       <c r="I11" t="s">
-        <v>15</v>
+        <v>77</v>
       </c>
       <c r="J11" t="s">
         <v>5</v>
@@ -2392,16 +2394,16 @@
         <v>4</v>
       </c>
       <c r="P11" t="s">
-        <v>322</v>
-      </c>
-      <c r="Q11" t="s">
-        <v>323</v>
+        <v>390</v>
+      </c>
+      <c r="Q11">
+        <v>1056</v>
       </c>
       <c r="R11" t="s">
         <v>313</v>
       </c>
       <c r="S11" t="s">
-        <v>324</v>
+        <v>391</v>
       </c>
       <c r="T11" t="s">
         <v>315</v>
@@ -2409,13 +2411,13 @@
     </row>
     <row r="12" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>150</v>
+        <v>290</v>
       </c>
       <c r="B12" t="s">
         <v>0</v>
       </c>
       <c r="C12" t="s">
-        <v>1</v>
+        <v>86</v>
       </c>
       <c r="D12" t="s">
         <v>128</v>
@@ -2424,46 +2426,46 @@
         <v>2</v>
       </c>
       <c r="F12" t="s">
-        <v>16</v>
+        <v>76</v>
       </c>
       <c r="G12">
         <v>536</v>
       </c>
       <c r="H12">
-        <v>109</v>
+        <v>181</v>
       </c>
       <c r="I12" t="s">
-        <v>17</v>
+        <v>123</v>
       </c>
       <c r="J12" t="s">
-        <v>5</v>
+        <v>88</v>
       </c>
       <c r="K12" t="s">
         <v>6</v>
       </c>
       <c r="L12" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="M12">
-        <v>113</v>
+        <v>18</v>
       </c>
       <c r="N12" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="O12">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="P12" t="s">
-        <v>325</v>
+        <v>390</v>
       </c>
       <c r="Q12">
-        <v>5506</v>
+        <v>1056</v>
       </c>
       <c r="R12" t="s">
         <v>313</v>
       </c>
       <c r="S12" t="s">
-        <v>326</v>
+        <v>391</v>
       </c>
       <c r="T12" t="s">
         <v>315</v>
@@ -2471,13 +2473,13 @@
     </row>
     <row r="13" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>151</v>
+        <v>291</v>
       </c>
       <c r="B13" t="s">
         <v>0</v>
       </c>
       <c r="C13" t="s">
-        <v>1</v>
+        <v>86</v>
       </c>
       <c r="D13" t="s">
         <v>128</v>
@@ -2486,46 +2488,46 @@
         <v>2</v>
       </c>
       <c r="F13" t="s">
-        <v>16</v>
+        <v>76</v>
       </c>
       <c r="G13">
         <v>536</v>
       </c>
       <c r="H13">
-        <v>109</v>
+        <v>181</v>
       </c>
       <c r="I13" t="s">
-        <v>17</v>
+        <v>123</v>
       </c>
       <c r="J13" t="s">
-        <v>5</v>
+        <v>88</v>
       </c>
       <c r="K13" t="s">
         <v>7</v>
       </c>
       <c r="L13" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="M13">
-        <v>113</v>
+        <v>18</v>
       </c>
       <c r="N13" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="O13">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="P13" t="s">
-        <v>325</v>
+        <v>390</v>
       </c>
       <c r="Q13">
-        <v>5506</v>
+        <v>1056</v>
       </c>
       <c r="R13" t="s">
         <v>313</v>
       </c>
       <c r="S13" t="s">
-        <v>326</v>
+        <v>391</v>
       </c>
       <c r="T13" t="s">
         <v>315</v>
@@ -2533,7 +2535,7 @@
     </row>
     <row r="14" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>152</v>
+        <v>198</v>
       </c>
       <c r="B14" t="s">
         <v>0</v>
@@ -2548,16 +2550,16 @@
         <v>2</v>
       </c>
       <c r="F14" t="s">
-        <v>18</v>
+        <v>64</v>
       </c>
       <c r="G14">
         <v>536</v>
       </c>
       <c r="H14">
-        <v>110</v>
+        <v>161</v>
       </c>
       <c r="I14" t="s">
-        <v>19</v>
+        <v>65</v>
       </c>
       <c r="J14" t="s">
         <v>5</v>
@@ -2578,16 +2580,16 @@
         <v>4</v>
       </c>
       <c r="P14" t="s">
-        <v>327</v>
+        <v>377</v>
       </c>
       <c r="Q14">
-        <v>6024</v>
+        <v>1059</v>
       </c>
       <c r="R14" t="s">
         <v>313</v>
       </c>
       <c r="S14" t="s">
-        <v>328</v>
+        <v>378</v>
       </c>
       <c r="T14" t="s">
         <v>315</v>
@@ -2595,7 +2597,7 @@
     </row>
     <row r="15" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>153</v>
+        <v>199</v>
       </c>
       <c r="B15" t="s">
         <v>0</v>
@@ -2610,16 +2612,16 @@
         <v>2</v>
       </c>
       <c r="F15" t="s">
-        <v>18</v>
+        <v>64</v>
       </c>
       <c r="G15">
         <v>536</v>
       </c>
       <c r="H15">
-        <v>110</v>
+        <v>161</v>
       </c>
       <c r="I15" t="s">
-        <v>19</v>
+        <v>65</v>
       </c>
       <c r="J15" t="s">
         <v>5</v>
@@ -2640,16 +2642,16 @@
         <v>4</v>
       </c>
       <c r="P15" t="s">
-        <v>327</v>
+        <v>377</v>
       </c>
       <c r="Q15">
-        <v>6024</v>
+        <v>1059</v>
       </c>
       <c r="R15" t="s">
         <v>313</v>
       </c>
       <c r="S15" t="s">
-        <v>328</v>
+        <v>378</v>
       </c>
       <c r="T15" t="s">
         <v>315</v>
@@ -2657,13 +2659,13 @@
     </row>
     <row r="16" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>154</v>
+        <v>278</v>
       </c>
       <c r="B16" t="s">
         <v>0</v>
       </c>
       <c r="C16" t="s">
-        <v>1</v>
+        <v>86</v>
       </c>
       <c r="D16" t="s">
         <v>128</v>
@@ -2672,46 +2674,46 @@
         <v>2</v>
       </c>
       <c r="F16" t="s">
-        <v>20</v>
+        <v>64</v>
       </c>
       <c r="G16">
         <v>536</v>
       </c>
       <c r="H16">
-        <v>111</v>
+        <v>161</v>
       </c>
       <c r="I16" t="s">
-        <v>21</v>
+        <v>117</v>
       </c>
       <c r="J16" t="s">
-        <v>5</v>
+        <v>88</v>
       </c>
       <c r="K16" t="s">
         <v>6</v>
       </c>
       <c r="L16" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="M16">
-        <v>113</v>
+        <v>18</v>
       </c>
       <c r="N16" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="O16">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="P16" t="s">
-        <v>329</v>
+        <v>377</v>
       </c>
       <c r="Q16">
-        <v>4216</v>
+        <v>1059</v>
       </c>
       <c r="R16" t="s">
         <v>313</v>
       </c>
       <c r="S16" t="s">
-        <v>330</v>
+        <v>378</v>
       </c>
       <c r="T16" t="s">
         <v>315</v>
@@ -2719,13 +2721,13 @@
     </row>
     <row r="17" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>155</v>
+        <v>279</v>
       </c>
       <c r="B17" t="s">
         <v>0</v>
       </c>
       <c r="C17" t="s">
-        <v>1</v>
+        <v>86</v>
       </c>
       <c r="D17" t="s">
         <v>128</v>
@@ -2734,46 +2736,46 @@
         <v>2</v>
       </c>
       <c r="F17" t="s">
-        <v>20</v>
+        <v>64</v>
       </c>
       <c r="G17">
         <v>536</v>
       </c>
       <c r="H17">
-        <v>111</v>
+        <v>161</v>
       </c>
       <c r="I17" t="s">
-        <v>21</v>
+        <v>117</v>
       </c>
       <c r="J17" t="s">
-        <v>5</v>
+        <v>88</v>
       </c>
       <c r="K17" t="s">
         <v>7</v>
       </c>
       <c r="L17" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="M17">
-        <v>113</v>
+        <v>18</v>
       </c>
       <c r="N17" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="O17">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="P17" t="s">
-        <v>329</v>
+        <v>377</v>
       </c>
       <c r="Q17">
-        <v>4216</v>
+        <v>1059</v>
       </c>
       <c r="R17" t="s">
         <v>313</v>
       </c>
       <c r="S17" t="s">
-        <v>330</v>
+        <v>378</v>
       </c>
       <c r="T17" t="s">
         <v>315</v>
@@ -2781,7 +2783,7 @@
     </row>
     <row r="18" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="B18" t="s">
         <v>0</v>
@@ -2796,16 +2798,16 @@
         <v>2</v>
       </c>
       <c r="F18" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="G18">
         <v>536</v>
       </c>
       <c r="H18">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="I18" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="J18" t="s">
         <v>5</v>
@@ -2826,16 +2828,16 @@
         <v>4</v>
       </c>
       <c r="P18" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="Q18">
-        <v>4220</v>
+        <v>1081</v>
       </c>
       <c r="R18" t="s">
         <v>313</v>
       </c>
       <c r="S18" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="T18" t="s">
         <v>315</v>
@@ -2843,7 +2845,7 @@
     </row>
     <row r="19" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="B19" t="s">
         <v>0</v>
@@ -2858,16 +2860,16 @@
         <v>2</v>
       </c>
       <c r="F19" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="G19">
         <v>536</v>
       </c>
       <c r="H19">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="I19" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="J19" t="s">
         <v>5</v>
@@ -2888,16 +2890,16 @@
         <v>4</v>
       </c>
       <c r="P19" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="Q19">
-        <v>4220</v>
+        <v>1081</v>
       </c>
       <c r="R19" t="s">
         <v>313</v>
       </c>
       <c r="S19" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="T19" t="s">
         <v>315</v>
@@ -2905,13 +2907,13 @@
     </row>
     <row r="20" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>158</v>
+        <v>238</v>
       </c>
       <c r="B20" t="s">
         <v>0</v>
       </c>
       <c r="C20" t="s">
-        <v>1</v>
+        <v>86</v>
       </c>
       <c r="D20" t="s">
         <v>128</v>
@@ -2929,25 +2931,25 @@
         <v>113</v>
       </c>
       <c r="I20" t="s">
-        <v>25</v>
+        <v>97</v>
       </c>
       <c r="J20" t="s">
-        <v>5</v>
+        <v>88</v>
       </c>
       <c r="K20" t="s">
         <v>6</v>
       </c>
       <c r="L20" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="M20">
-        <v>113</v>
+        <v>18</v>
       </c>
       <c r="N20" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="O20">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="P20" t="s">
         <v>333</v>
@@ -2967,13 +2969,13 @@
     </row>
     <row r="21" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>159</v>
+        <v>239</v>
       </c>
       <c r="B21" t="s">
         <v>0</v>
       </c>
       <c r="C21" t="s">
-        <v>1</v>
+        <v>86</v>
       </c>
       <c r="D21" t="s">
         <v>128</v>
@@ -2991,25 +2993,25 @@
         <v>113</v>
       </c>
       <c r="I21" t="s">
-        <v>25</v>
+        <v>97</v>
       </c>
       <c r="J21" t="s">
-        <v>5</v>
+        <v>88</v>
       </c>
       <c r="K21" t="s">
         <v>7</v>
       </c>
       <c r="L21" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="M21">
-        <v>113</v>
+        <v>18</v>
       </c>
       <c r="N21" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="O21">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="P21" t="s">
         <v>333</v>
@@ -3029,7 +3031,7 @@
     </row>
     <row r="22" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>160</v>
+        <v>174</v>
       </c>
       <c r="B22" t="s">
         <v>0</v>
@@ -3044,16 +3046,16 @@
         <v>2</v>
       </c>
       <c r="F22" t="s">
-        <v>26</v>
+        <v>40</v>
       </c>
       <c r="G22">
         <v>536</v>
       </c>
       <c r="H22">
-        <v>121</v>
+        <v>135</v>
       </c>
       <c r="I22" t="s">
-        <v>27</v>
+        <v>41</v>
       </c>
       <c r="J22" t="s">
         <v>5</v>
@@ -3074,16 +3076,16 @@
         <v>4</v>
       </c>
       <c r="P22" t="s">
-        <v>335</v>
+        <v>350</v>
       </c>
       <c r="Q22">
-        <v>1129</v>
+        <v>1116</v>
       </c>
       <c r="R22" t="s">
         <v>313</v>
       </c>
       <c r="S22" t="s">
-        <v>336</v>
+        <v>351</v>
       </c>
       <c r="T22" t="s">
         <v>315</v>
@@ -3091,7 +3093,7 @@
     </row>
     <row r="23" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>161</v>
+        <v>175</v>
       </c>
       <c r="B23" t="s">
         <v>0</v>
@@ -3106,16 +3108,16 @@
         <v>2</v>
       </c>
       <c r="F23" t="s">
-        <v>26</v>
+        <v>40</v>
       </c>
       <c r="G23">
         <v>536</v>
       </c>
       <c r="H23">
-        <v>121</v>
+        <v>135</v>
       </c>
       <c r="I23" t="s">
-        <v>27</v>
+        <v>41</v>
       </c>
       <c r="J23" t="s">
         <v>5</v>
@@ -3136,16 +3138,16 @@
         <v>4</v>
       </c>
       <c r="P23" t="s">
-        <v>335</v>
+        <v>350</v>
       </c>
       <c r="Q23">
-        <v>1129</v>
+        <v>1116</v>
       </c>
       <c r="R23" t="s">
         <v>313</v>
       </c>
       <c r="S23" t="s">
-        <v>336</v>
+        <v>351</v>
       </c>
       <c r="T23" t="s">
         <v>315</v>
@@ -3153,13 +3155,13 @@
     </row>
     <row r="24" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>162</v>
+        <v>254</v>
       </c>
       <c r="B24" t="s">
         <v>0</v>
       </c>
       <c r="C24" t="s">
-        <v>1</v>
+        <v>86</v>
       </c>
       <c r="D24" t="s">
         <v>128</v>
@@ -3168,46 +3170,46 @@
         <v>2</v>
       </c>
       <c r="F24" t="s">
-        <v>28</v>
+        <v>40</v>
       </c>
       <c r="G24">
         <v>536</v>
       </c>
       <c r="H24">
-        <v>122</v>
+        <v>135</v>
       </c>
       <c r="I24" t="s">
-        <v>29</v>
+        <v>105</v>
       </c>
       <c r="J24" t="s">
-        <v>5</v>
+        <v>88</v>
       </c>
       <c r="K24" t="s">
         <v>6</v>
       </c>
       <c r="L24" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="M24">
-        <v>113</v>
+        <v>18</v>
       </c>
       <c r="N24" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="O24">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="P24" t="s">
-        <v>337</v>
+        <v>350</v>
       </c>
       <c r="Q24">
-        <v>4223</v>
+        <v>1116</v>
       </c>
       <c r="R24" t="s">
         <v>313</v>
       </c>
       <c r="S24" t="s">
-        <v>338</v>
+        <v>351</v>
       </c>
       <c r="T24" t="s">
         <v>315</v>
@@ -3215,13 +3217,13 @@
     </row>
     <row r="25" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>163</v>
+        <v>255</v>
       </c>
       <c r="B25" t="s">
         <v>0</v>
       </c>
       <c r="C25" t="s">
-        <v>1</v>
+        <v>86</v>
       </c>
       <c r="D25" t="s">
         <v>128</v>
@@ -3230,46 +3232,46 @@
         <v>2</v>
       </c>
       <c r="F25" t="s">
-        <v>28</v>
+        <v>40</v>
       </c>
       <c r="G25">
         <v>536</v>
       </c>
       <c r="H25">
-        <v>122</v>
+        <v>135</v>
       </c>
       <c r="I25" t="s">
-        <v>29</v>
+        <v>105</v>
       </c>
       <c r="J25" t="s">
-        <v>5</v>
+        <v>88</v>
       </c>
       <c r="K25" t="s">
         <v>7</v>
       </c>
       <c r="L25" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="M25">
-        <v>113</v>
+        <v>18</v>
       </c>
       <c r="N25" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="O25">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="P25" t="s">
-        <v>337</v>
+        <v>350</v>
       </c>
       <c r="Q25">
-        <v>4223</v>
+        <v>1116</v>
       </c>
       <c r="R25" t="s">
         <v>313</v>
       </c>
       <c r="S25" t="s">
-        <v>338</v>
+        <v>351</v>
       </c>
       <c r="T25" t="s">
         <v>315</v>
@@ -3277,7 +3279,7 @@
     </row>
     <row r="26" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>164</v>
+        <v>142</v>
       </c>
       <c r="B26" t="s">
         <v>0</v>
@@ -3292,16 +3294,16 @@
         <v>2</v>
       </c>
       <c r="F26" t="s">
-        <v>30</v>
+        <v>8</v>
       </c>
       <c r="G26">
         <v>536</v>
       </c>
       <c r="H26">
-        <v>123</v>
+        <v>98</v>
       </c>
       <c r="I26" t="s">
-        <v>31</v>
+        <v>9</v>
       </c>
       <c r="J26" t="s">
         <v>5</v>
@@ -3322,16 +3324,16 @@
         <v>4</v>
       </c>
       <c r="P26" t="s">
-        <v>339</v>
+        <v>316</v>
       </c>
       <c r="Q26">
-        <v>4229</v>
+        <v>1119</v>
       </c>
       <c r="R26" t="s">
         <v>313</v>
       </c>
       <c r="S26" t="s">
-        <v>340</v>
+        <v>317</v>
       </c>
       <c r="T26" t="s">
         <v>315</v>
@@ -3339,7 +3341,7 @@
     </row>
     <row r="27" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>165</v>
+        <v>143</v>
       </c>
       <c r="B27" t="s">
         <v>0</v>
@@ -3354,16 +3356,16 @@
         <v>2</v>
       </c>
       <c r="F27" t="s">
-        <v>30</v>
+        <v>8</v>
       </c>
       <c r="G27">
         <v>536</v>
       </c>
       <c r="H27">
-        <v>123</v>
+        <v>98</v>
       </c>
       <c r="I27" t="s">
-        <v>31</v>
+        <v>9</v>
       </c>
       <c r="J27" t="s">
         <v>5</v>
@@ -3384,16 +3386,16 @@
         <v>4</v>
       </c>
       <c r="P27" t="s">
-        <v>339</v>
+        <v>316</v>
       </c>
       <c r="Q27">
-        <v>4229</v>
+        <v>1119</v>
       </c>
       <c r="R27" t="s">
         <v>313</v>
       </c>
       <c r="S27" t="s">
-        <v>340</v>
+        <v>317</v>
       </c>
       <c r="T27" t="s">
         <v>315</v>
@@ -3401,13 +3403,13 @@
     </row>
     <row r="28" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>166</v>
+        <v>222</v>
       </c>
       <c r="B28" t="s">
         <v>0</v>
       </c>
       <c r="C28" t="s">
-        <v>1</v>
+        <v>86</v>
       </c>
       <c r="D28" t="s">
         <v>128</v>
@@ -3416,46 +3418,46 @@
         <v>2</v>
       </c>
       <c r="F28" t="s">
-        <v>32</v>
+        <v>8</v>
       </c>
       <c r="G28">
         <v>536</v>
       </c>
       <c r="H28">
-        <v>124</v>
+        <v>98</v>
       </c>
       <c r="I28" t="s">
-        <v>33</v>
+        <v>89</v>
       </c>
       <c r="J28" t="s">
-        <v>5</v>
+        <v>88</v>
       </c>
       <c r="K28" t="s">
         <v>6</v>
       </c>
       <c r="L28" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="M28">
-        <v>113</v>
+        <v>18</v>
       </c>
       <c r="N28" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="O28">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="P28" t="s">
-        <v>341</v>
+        <v>316</v>
       </c>
       <c r="Q28">
-        <v>1043</v>
+        <v>1119</v>
       </c>
       <c r="R28" t="s">
         <v>313</v>
       </c>
       <c r="S28" t="s">
-        <v>342</v>
+        <v>317</v>
       </c>
       <c r="T28" t="s">
         <v>315</v>
@@ -3463,13 +3465,13 @@
     </row>
     <row r="29" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>167</v>
+        <v>223</v>
       </c>
       <c r="B29" t="s">
         <v>0</v>
       </c>
       <c r="C29" t="s">
-        <v>1</v>
+        <v>86</v>
       </c>
       <c r="D29" t="s">
         <v>128</v>
@@ -3478,46 +3480,46 @@
         <v>2</v>
       </c>
       <c r="F29" t="s">
-        <v>32</v>
+        <v>8</v>
       </c>
       <c r="G29">
         <v>536</v>
       </c>
       <c r="H29">
-        <v>124</v>
+        <v>98</v>
       </c>
       <c r="I29" t="s">
-        <v>33</v>
+        <v>89</v>
       </c>
       <c r="J29" t="s">
-        <v>5</v>
+        <v>88</v>
       </c>
       <c r="K29" t="s">
         <v>7</v>
       </c>
       <c r="L29" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="M29">
-        <v>113</v>
+        <v>18</v>
       </c>
       <c r="N29" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="O29">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="P29" t="s">
-        <v>341</v>
+        <v>316</v>
       </c>
       <c r="Q29">
-        <v>1043</v>
+        <v>1119</v>
       </c>
       <c r="R29" t="s">
         <v>313</v>
       </c>
       <c r="S29" t="s">
-        <v>342</v>
+        <v>317</v>
       </c>
       <c r="T29" t="s">
         <v>315</v>
@@ -3525,7 +3527,7 @@
     </row>
     <row r="30" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>168</v>
+        <v>212</v>
       </c>
       <c r="B30" t="s">
         <v>0</v>
@@ -3540,16 +3542,16 @@
         <v>2</v>
       </c>
       <c r="F30" t="s">
-        <v>34</v>
+        <v>78</v>
       </c>
       <c r="G30">
         <v>536</v>
       </c>
       <c r="H30">
-        <v>125</v>
+        <v>182</v>
       </c>
       <c r="I30" t="s">
-        <v>35</v>
+        <v>79</v>
       </c>
       <c r="J30" t="s">
         <v>5</v>
@@ -3570,16 +3572,16 @@
         <v>4</v>
       </c>
       <c r="P30" t="s">
-        <v>343</v>
+        <v>392</v>
       </c>
       <c r="Q30">
-        <v>6029</v>
+        <v>1128</v>
       </c>
       <c r="R30" t="s">
         <v>313</v>
       </c>
       <c r="S30" t="s">
-        <v>344</v>
+        <v>393</v>
       </c>
       <c r="T30" t="s">
         <v>315</v>
@@ -3587,7 +3589,7 @@
     </row>
     <row r="31" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>169</v>
+        <v>213</v>
       </c>
       <c r="B31" t="s">
         <v>0</v>
@@ -3602,16 +3604,16 @@
         <v>2</v>
       </c>
       <c r="F31" t="s">
-        <v>34</v>
+        <v>78</v>
       </c>
       <c r="G31">
         <v>536</v>
       </c>
       <c r="H31">
-        <v>125</v>
+        <v>182</v>
       </c>
       <c r="I31" t="s">
-        <v>35</v>
+        <v>79</v>
       </c>
       <c r="J31" t="s">
         <v>5</v>
@@ -3632,16 +3634,16 @@
         <v>4</v>
       </c>
       <c r="P31" t="s">
-        <v>343</v>
+        <v>392</v>
       </c>
       <c r="Q31">
-        <v>6029</v>
+        <v>1128</v>
       </c>
       <c r="R31" t="s">
         <v>313</v>
       </c>
       <c r="S31" t="s">
-        <v>344</v>
+        <v>393</v>
       </c>
       <c r="T31" t="s">
         <v>315</v>
@@ -3649,13 +3651,13 @@
     </row>
     <row r="32" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>170</v>
+        <v>292</v>
       </c>
       <c r="B32" t="s">
         <v>0</v>
       </c>
       <c r="C32" t="s">
-        <v>1</v>
+        <v>86</v>
       </c>
       <c r="D32" t="s">
         <v>128</v>
@@ -3664,46 +3666,46 @@
         <v>2</v>
       </c>
       <c r="F32" t="s">
-        <v>36</v>
+        <v>78</v>
       </c>
       <c r="G32">
         <v>536</v>
       </c>
       <c r="H32">
-        <v>133</v>
+        <v>182</v>
       </c>
       <c r="I32" t="s">
-        <v>37</v>
+        <v>124</v>
       </c>
       <c r="J32" t="s">
-        <v>5</v>
+        <v>88</v>
       </c>
       <c r="K32" t="s">
         <v>6</v>
       </c>
       <c r="L32" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="M32">
-        <v>113</v>
+        <v>18</v>
       </c>
       <c r="N32" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="O32">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="P32" t="s">
-        <v>345</v>
+        <v>392</v>
       </c>
       <c r="Q32">
-        <v>1130</v>
+        <v>1128</v>
       </c>
       <c r="R32" t="s">
         <v>313</v>
       </c>
       <c r="S32" t="s">
-        <v>346</v>
+        <v>393</v>
       </c>
       <c r="T32" t="s">
         <v>315</v>
@@ -3711,13 +3713,13 @@
     </row>
     <row r="33" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>171</v>
+        <v>293</v>
       </c>
       <c r="B33" t="s">
         <v>0</v>
       </c>
       <c r="C33" t="s">
-        <v>1</v>
+        <v>86</v>
       </c>
       <c r="D33" t="s">
         <v>128</v>
@@ -3726,46 +3728,46 @@
         <v>2</v>
       </c>
       <c r="F33" t="s">
-        <v>36</v>
+        <v>78</v>
       </c>
       <c r="G33">
         <v>536</v>
       </c>
       <c r="H33">
-        <v>133</v>
+        <v>182</v>
       </c>
       <c r="I33" t="s">
-        <v>37</v>
+        <v>124</v>
       </c>
       <c r="J33" t="s">
-        <v>5</v>
+        <v>88</v>
       </c>
       <c r="K33" t="s">
         <v>7</v>
       </c>
       <c r="L33" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="M33">
-        <v>113</v>
+        <v>18</v>
       </c>
       <c r="N33" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="O33">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="P33" t="s">
-        <v>345</v>
+        <v>392</v>
       </c>
       <c r="Q33">
-        <v>1130</v>
+        <v>1128</v>
       </c>
       <c r="R33" t="s">
         <v>313</v>
       </c>
       <c r="S33" t="s">
-        <v>346</v>
+        <v>393</v>
       </c>
       <c r="T33" t="s">
         <v>315</v>
@@ -3773,7 +3775,7 @@
     </row>
     <row r="34" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>172</v>
+        <v>160</v>
       </c>
       <c r="B34" t="s">
         <v>0</v>
@@ -3788,16 +3790,16 @@
         <v>2</v>
       </c>
       <c r="F34" t="s">
-        <v>38</v>
+        <v>26</v>
       </c>
       <c r="G34">
         <v>536</v>
       </c>
       <c r="H34">
-        <v>134</v>
+        <v>121</v>
       </c>
       <c r="I34" t="s">
-        <v>39</v>
+        <v>27</v>
       </c>
       <c r="J34" t="s">
         <v>5</v>
@@ -3818,16 +3820,16 @@
         <v>4</v>
       </c>
       <c r="P34" t="s">
-        <v>347</v>
-      </c>
-      <c r="Q34" t="s">
-        <v>348</v>
+        <v>335</v>
+      </c>
+      <c r="Q34">
+        <v>1129</v>
       </c>
       <c r="R34" t="s">
         <v>313</v>
       </c>
       <c r="S34" t="s">
-        <v>349</v>
+        <v>336</v>
       </c>
       <c r="T34" t="s">
         <v>315</v>
@@ -3835,7 +3837,7 @@
     </row>
     <row r="35" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="B35" t="s">
         <v>0</v>
@@ -3850,16 +3852,16 @@
         <v>2</v>
       </c>
       <c r="F35" t="s">
-        <v>38</v>
+        <v>26</v>
       </c>
       <c r="G35">
         <v>536</v>
       </c>
       <c r="H35">
-        <v>134</v>
+        <v>121</v>
       </c>
       <c r="I35" t="s">
-        <v>39</v>
+        <v>27</v>
       </c>
       <c r="J35" t="s">
         <v>5</v>
@@ -3880,16 +3882,16 @@
         <v>4</v>
       </c>
       <c r="P35" t="s">
-        <v>347</v>
-      </c>
-      <c r="Q35" t="s">
-        <v>348</v>
+        <v>335</v>
+      </c>
+      <c r="Q35">
+        <v>1129</v>
       </c>
       <c r="R35" t="s">
         <v>313</v>
       </c>
       <c r="S35" t="s">
-        <v>349</v>
+        <v>336</v>
       </c>
       <c r="T35" t="s">
         <v>315</v>
@@ -3897,13 +3899,13 @@
     </row>
     <row r="36" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>174</v>
+        <v>240</v>
       </c>
       <c r="B36" t="s">
         <v>0</v>
       </c>
       <c r="C36" t="s">
-        <v>1</v>
+        <v>86</v>
       </c>
       <c r="D36" t="s">
         <v>128</v>
@@ -3912,46 +3914,46 @@
         <v>2</v>
       </c>
       <c r="F36" t="s">
-        <v>40</v>
+        <v>26</v>
       </c>
       <c r="G36">
         <v>536</v>
       </c>
       <c r="H36">
-        <v>135</v>
+        <v>121</v>
       </c>
       <c r="I36" t="s">
-        <v>41</v>
+        <v>98</v>
       </c>
       <c r="J36" t="s">
-        <v>5</v>
+        <v>88</v>
       </c>
       <c r="K36" t="s">
         <v>6</v>
       </c>
       <c r="L36" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="M36">
-        <v>113</v>
+        <v>18</v>
       </c>
       <c r="N36" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="O36">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="P36" t="s">
-        <v>350</v>
+        <v>335</v>
       </c>
       <c r="Q36">
-        <v>1116</v>
+        <v>1129</v>
       </c>
       <c r="R36" t="s">
         <v>313</v>
       </c>
       <c r="S36" t="s">
-        <v>351</v>
+        <v>336</v>
       </c>
       <c r="T36" t="s">
         <v>315</v>
@@ -3959,13 +3961,13 @@
     </row>
     <row r="37" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>175</v>
+        <v>241</v>
       </c>
       <c r="B37" t="s">
         <v>0</v>
       </c>
       <c r="C37" t="s">
-        <v>1</v>
+        <v>86</v>
       </c>
       <c r="D37" t="s">
         <v>128</v>
@@ -3974,46 +3976,46 @@
         <v>2</v>
       </c>
       <c r="F37" t="s">
-        <v>40</v>
+        <v>26</v>
       </c>
       <c r="G37">
         <v>536</v>
       </c>
       <c r="H37">
-        <v>135</v>
+        <v>121</v>
       </c>
       <c r="I37" t="s">
-        <v>41</v>
+        <v>98</v>
       </c>
       <c r="J37" t="s">
-        <v>5</v>
+        <v>88</v>
       </c>
       <c r="K37" t="s">
         <v>7</v>
       </c>
       <c r="L37" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="M37">
-        <v>113</v>
+        <v>18</v>
       </c>
       <c r="N37" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="O37">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="P37" t="s">
-        <v>350</v>
+        <v>335</v>
       </c>
       <c r="Q37">
-        <v>1116</v>
+        <v>1129</v>
       </c>
       <c r="R37" t="s">
         <v>313</v>
       </c>
       <c r="S37" t="s">
-        <v>351</v>
+        <v>336</v>
       </c>
       <c r="T37" t="s">
         <v>315</v>
@@ -4021,7 +4023,7 @@
     </row>
     <row r="38" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="B38" t="s">
         <v>0</v>
@@ -4036,16 +4038,16 @@
         <v>2</v>
       </c>
       <c r="F38" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="G38">
         <v>536</v>
       </c>
       <c r="H38">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="I38" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="J38" t="s">
         <v>5</v>
@@ -4066,16 +4068,16 @@
         <v>4</v>
       </c>
       <c r="P38" t="s">
-        <v>352</v>
+        <v>345</v>
       </c>
       <c r="Q38">
-        <v>6012</v>
+        <v>1130</v>
       </c>
       <c r="R38" t="s">
         <v>313</v>
       </c>
       <c r="S38" t="s">
-        <v>353</v>
+        <v>346</v>
       </c>
       <c r="T38" t="s">
         <v>315</v>
@@ -4083,7 +4085,7 @@
     </row>
     <row r="39" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="B39" t="s">
         <v>0</v>
@@ -4098,16 +4100,16 @@
         <v>2</v>
       </c>
       <c r="F39" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="G39">
         <v>536</v>
       </c>
       <c r="H39">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="I39" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="J39" t="s">
         <v>5</v>
@@ -4128,16 +4130,16 @@
         <v>4</v>
       </c>
       <c r="P39" t="s">
-        <v>352</v>
+        <v>345</v>
       </c>
       <c r="Q39">
-        <v>6012</v>
+        <v>1130</v>
       </c>
       <c r="R39" t="s">
         <v>313</v>
       </c>
       <c r="S39" t="s">
-        <v>353</v>
+        <v>346</v>
       </c>
       <c r="T39" t="s">
         <v>315</v>
@@ -4145,13 +4147,13 @@
     </row>
     <row r="40" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>178</v>
+        <v>250</v>
       </c>
       <c r="B40" t="s">
         <v>0</v>
       </c>
       <c r="C40" t="s">
-        <v>1</v>
+        <v>86</v>
       </c>
       <c r="D40" t="s">
         <v>128</v>
@@ -4160,46 +4162,46 @@
         <v>2</v>
       </c>
       <c r="F40" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="G40">
         <v>536</v>
       </c>
       <c r="H40">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="I40" t="s">
-        <v>45</v>
+        <v>103</v>
       </c>
       <c r="J40" t="s">
-        <v>5</v>
+        <v>88</v>
       </c>
       <c r="K40" t="s">
         <v>6</v>
       </c>
       <c r="L40" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="M40">
-        <v>113</v>
+        <v>18</v>
       </c>
       <c r="N40" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="O40">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="P40" t="s">
-        <v>354</v>
-      </c>
-      <c r="Q40" t="s">
-        <v>355</v>
+        <v>345</v>
+      </c>
+      <c r="Q40">
+        <v>1130</v>
       </c>
       <c r="R40" t="s">
         <v>313</v>
       </c>
       <c r="S40" t="s">
-        <v>356</v>
+        <v>346</v>
       </c>
       <c r="T40" t="s">
         <v>315</v>
@@ -4207,13 +4209,13 @@
     </row>
     <row r="41" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>179</v>
+        <v>251</v>
       </c>
       <c r="B41" t="s">
         <v>0</v>
       </c>
       <c r="C41" t="s">
-        <v>1</v>
+        <v>86</v>
       </c>
       <c r="D41" t="s">
         <v>128</v>
@@ -4222,46 +4224,46 @@
         <v>2</v>
       </c>
       <c r="F41" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="G41">
         <v>536</v>
       </c>
       <c r="H41">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="I41" t="s">
-        <v>45</v>
+        <v>103</v>
       </c>
       <c r="J41" t="s">
-        <v>5</v>
+        <v>88</v>
       </c>
       <c r="K41" t="s">
         <v>7</v>
       </c>
       <c r="L41" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="M41">
-        <v>113</v>
+        <v>18</v>
       </c>
       <c r="N41" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="O41">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="P41" t="s">
-        <v>354</v>
-      </c>
-      <c r="Q41" t="s">
-        <v>355</v>
+        <v>345</v>
+      </c>
+      <c r="Q41">
+        <v>1130</v>
       </c>
       <c r="R41" t="s">
         <v>313</v>
       </c>
       <c r="S41" t="s">
-        <v>356</v>
+        <v>346</v>
       </c>
       <c r="T41" t="s">
         <v>315</v>
@@ -4269,7 +4271,7 @@
     </row>
     <row r="42" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>180</v>
+        <v>188</v>
       </c>
       <c r="B42" t="s">
         <v>0</v>
@@ -4284,16 +4286,16 @@
         <v>2</v>
       </c>
       <c r="F42" t="s">
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="G42">
         <v>536</v>
       </c>
       <c r="H42">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="I42" t="s">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="J42" t="s">
         <v>5</v>
@@ -4314,16 +4316,16 @@
         <v>4</v>
       </c>
       <c r="P42" t="s">
-        <v>357</v>
-      </c>
-      <c r="Q42" t="s">
-        <v>358</v>
+        <v>366</v>
+      </c>
+      <c r="Q42">
+        <v>2003</v>
       </c>
       <c r="R42" t="s">
         <v>313</v>
       </c>
       <c r="S42" t="s">
-        <v>359</v>
+        <v>367</v>
       </c>
       <c r="T42" t="s">
         <v>315</v>
@@ -4331,7 +4333,7 @@
     </row>
     <row r="43" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>181</v>
+        <v>189</v>
       </c>
       <c r="B43" t="s">
         <v>0</v>
@@ -4346,16 +4348,16 @@
         <v>2</v>
       </c>
       <c r="F43" t="s">
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="G43">
         <v>536</v>
       </c>
       <c r="H43">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="I43" t="s">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="J43" t="s">
         <v>5</v>
@@ -4376,16 +4378,16 @@
         <v>4</v>
       </c>
       <c r="P43" t="s">
-        <v>357</v>
-      </c>
-      <c r="Q43" t="s">
-        <v>358</v>
+        <v>366</v>
+      </c>
+      <c r="Q43">
+        <v>2003</v>
       </c>
       <c r="R43" t="s">
         <v>313</v>
       </c>
       <c r="S43" t="s">
-        <v>359</v>
+        <v>367</v>
       </c>
       <c r="T43" t="s">
         <v>315</v>
@@ -4393,13 +4395,13 @@
     </row>
     <row r="44" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>182</v>
+        <v>268</v>
       </c>
       <c r="B44" t="s">
         <v>0</v>
       </c>
       <c r="C44" t="s">
-        <v>1</v>
+        <v>86</v>
       </c>
       <c r="D44" t="s">
         <v>128</v>
@@ -4408,46 +4410,46 @@
         <v>2</v>
       </c>
       <c r="F44" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="G44">
         <v>536</v>
       </c>
       <c r="H44">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="I44" t="s">
-        <v>49</v>
+        <v>112</v>
       </c>
       <c r="J44" t="s">
-        <v>5</v>
+        <v>88</v>
       </c>
       <c r="K44" t="s">
         <v>6</v>
       </c>
       <c r="L44" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="M44">
-        <v>113</v>
+        <v>18</v>
       </c>
       <c r="N44" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="O44">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="P44" t="s">
-        <v>360</v>
+        <v>366</v>
       </c>
       <c r="Q44">
-        <v>4224</v>
+        <v>2003</v>
       </c>
       <c r="R44" t="s">
         <v>313</v>
       </c>
       <c r="S44" t="s">
-        <v>361</v>
+        <v>367</v>
       </c>
       <c r="T44" t="s">
         <v>315</v>
@@ -4455,13 +4457,13 @@
     </row>
     <row r="45" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>183</v>
+        <v>269</v>
       </c>
       <c r="B45" t="s">
         <v>0</v>
       </c>
       <c r="C45" t="s">
-        <v>1</v>
+        <v>86</v>
       </c>
       <c r="D45" t="s">
         <v>128</v>
@@ -4470,46 +4472,46 @@
         <v>2</v>
       </c>
       <c r="F45" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="G45">
         <v>536</v>
       </c>
       <c r="H45">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="I45" t="s">
-        <v>49</v>
+        <v>112</v>
       </c>
       <c r="J45" t="s">
-        <v>5</v>
+        <v>88</v>
       </c>
       <c r="K45" t="s">
         <v>7</v>
       </c>
       <c r="L45" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="M45">
-        <v>113</v>
+        <v>18</v>
       </c>
       <c r="N45" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="O45">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="P45" t="s">
-        <v>360</v>
+        <v>366</v>
       </c>
       <c r="Q45">
-        <v>4224</v>
+        <v>2003</v>
       </c>
       <c r="R45" t="s">
         <v>313</v>
       </c>
       <c r="S45" t="s">
-        <v>361</v>
+        <v>367</v>
       </c>
       <c r="T45" t="s">
         <v>315</v>
@@ -4517,7 +4519,7 @@
     </row>
     <row r="46" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>184</v>
+        <v>206</v>
       </c>
       <c r="B46" t="s">
         <v>0</v>
@@ -4532,16 +4534,16 @@
         <v>2</v>
       </c>
       <c r="F46" t="s">
-        <v>50</v>
+        <v>72</v>
       </c>
       <c r="G46">
         <v>536</v>
       </c>
       <c r="H46">
-        <v>147</v>
+        <v>172</v>
       </c>
       <c r="I46" t="s">
-        <v>51</v>
+        <v>73</v>
       </c>
       <c r="J46" t="s">
         <v>5</v>
@@ -4562,16 +4564,16 @@
         <v>4</v>
       </c>
       <c r="P46" t="s">
-        <v>362</v>
+        <v>386</v>
       </c>
       <c r="Q46">
-        <v>4110</v>
+        <v>2025</v>
       </c>
       <c r="R46" t="s">
         <v>313</v>
       </c>
       <c r="S46" t="s">
-        <v>363</v>
+        <v>387</v>
       </c>
       <c r="T46" t="s">
         <v>315</v>
@@ -4579,7 +4581,7 @@
     </row>
     <row r="47" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>185</v>
+        <v>207</v>
       </c>
       <c r="B47" t="s">
         <v>0</v>
@@ -4594,16 +4596,16 @@
         <v>2</v>
       </c>
       <c r="F47" t="s">
-        <v>50</v>
+        <v>72</v>
       </c>
       <c r="G47">
         <v>536</v>
       </c>
       <c r="H47">
-        <v>147</v>
+        <v>172</v>
       </c>
       <c r="I47" t="s">
-        <v>51</v>
+        <v>73</v>
       </c>
       <c r="J47" t="s">
         <v>5</v>
@@ -4624,16 +4626,16 @@
         <v>4</v>
       </c>
       <c r="P47" t="s">
-        <v>362</v>
+        <v>386</v>
       </c>
       <c r="Q47">
-        <v>4110</v>
+        <v>2025</v>
       </c>
       <c r="R47" t="s">
         <v>313</v>
       </c>
       <c r="S47" t="s">
-        <v>363</v>
+        <v>387</v>
       </c>
       <c r="T47" t="s">
         <v>315</v>
@@ -4641,13 +4643,13 @@
     </row>
     <row r="48" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>186</v>
+        <v>286</v>
       </c>
       <c r="B48" t="s">
         <v>0</v>
       </c>
       <c r="C48" t="s">
-        <v>1</v>
+        <v>86</v>
       </c>
       <c r="D48" t="s">
         <v>128</v>
@@ -4656,46 +4658,46 @@
         <v>2</v>
       </c>
       <c r="F48" t="s">
-        <v>52</v>
+        <v>72</v>
       </c>
       <c r="G48">
         <v>536</v>
       </c>
       <c r="H48">
-        <v>148</v>
+        <v>172</v>
       </c>
       <c r="I48" t="s">
-        <v>53</v>
+        <v>121</v>
       </c>
       <c r="J48" t="s">
-        <v>5</v>
+        <v>88</v>
       </c>
       <c r="K48" t="s">
         <v>6</v>
       </c>
       <c r="L48" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="M48">
-        <v>113</v>
+        <v>18</v>
       </c>
       <c r="N48" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="O48">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="P48" t="s">
-        <v>364</v>
+        <v>386</v>
       </c>
       <c r="Q48">
-        <v>4207</v>
+        <v>2025</v>
       </c>
       <c r="R48" t="s">
         <v>313</v>
       </c>
       <c r="S48" t="s">
-        <v>365</v>
+        <v>387</v>
       </c>
       <c r="T48" t="s">
         <v>315</v>
@@ -4703,13 +4705,13 @@
     </row>
     <row r="49" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>187</v>
+        <v>287</v>
       </c>
       <c r="B49" t="s">
         <v>0</v>
       </c>
       <c r="C49" t="s">
-        <v>1</v>
+        <v>86</v>
       </c>
       <c r="D49" t="s">
         <v>128</v>
@@ -4718,46 +4720,46 @@
         <v>2</v>
       </c>
       <c r="F49" t="s">
-        <v>52</v>
+        <v>72</v>
       </c>
       <c r="G49">
         <v>536</v>
       </c>
       <c r="H49">
-        <v>148</v>
+        <v>172</v>
       </c>
       <c r="I49" t="s">
-        <v>53</v>
+        <v>121</v>
       </c>
       <c r="J49" t="s">
-        <v>5</v>
+        <v>88</v>
       </c>
       <c r="K49" t="s">
         <v>7</v>
       </c>
       <c r="L49" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="M49">
-        <v>113</v>
+        <v>18</v>
       </c>
       <c r="N49" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="O49">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="P49" t="s">
-        <v>364</v>
+        <v>386</v>
       </c>
       <c r="Q49">
-        <v>4207</v>
+        <v>2025</v>
       </c>
       <c r="R49" t="s">
         <v>313</v>
       </c>
       <c r="S49" t="s">
-        <v>365</v>
+        <v>387</v>
       </c>
       <c r="T49" t="s">
         <v>315</v>
@@ -4765,7 +4767,7 @@
     </row>
     <row r="50" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="B50" t="s">
         <v>0</v>
@@ -4780,16 +4782,16 @@
         <v>2</v>
       </c>
       <c r="F50" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="G50">
         <v>536</v>
       </c>
       <c r="H50">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="I50" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="J50" t="s">
         <v>5</v>
@@ -4810,16 +4812,16 @@
         <v>4</v>
       </c>
       <c r="P50" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="Q50">
-        <v>2003</v>
+        <v>4110</v>
       </c>
       <c r="R50" t="s">
         <v>313</v>
       </c>
       <c r="S50" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="T50" t="s">
         <v>315</v>
@@ -4827,7 +4829,7 @@
     </row>
     <row r="51" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="B51" t="s">
         <v>0</v>
@@ -4842,16 +4844,16 @@
         <v>2</v>
       </c>
       <c r="F51" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="G51">
         <v>536</v>
       </c>
       <c r="H51">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="I51" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="J51" t="s">
         <v>5</v>
@@ -4872,16 +4874,16 @@
         <v>4</v>
       </c>
       <c r="P51" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="Q51">
-        <v>2003</v>
+        <v>4110</v>
       </c>
       <c r="R51" t="s">
         <v>313</v>
       </c>
       <c r="S51" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="T51" t="s">
         <v>315</v>
@@ -4889,13 +4891,13 @@
     </row>
     <row r="52" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>190</v>
+        <v>264</v>
       </c>
       <c r="B52" t="s">
         <v>0</v>
       </c>
       <c r="C52" t="s">
-        <v>1</v>
+        <v>86</v>
       </c>
       <c r="D52" t="s">
         <v>128</v>
@@ -4904,46 +4906,46 @@
         <v>2</v>
       </c>
       <c r="F52" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="G52">
         <v>536</v>
       </c>
       <c r="H52">
-        <v>157</v>
+        <v>147</v>
       </c>
       <c r="I52" t="s">
-        <v>57</v>
+        <v>110</v>
       </c>
       <c r="J52" t="s">
-        <v>5</v>
+        <v>88</v>
       </c>
       <c r="K52" t="s">
         <v>6</v>
       </c>
       <c r="L52" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="M52">
-        <v>113</v>
+        <v>18</v>
       </c>
       <c r="N52" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="O52">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="P52" t="s">
-        <v>368</v>
+        <v>362</v>
       </c>
       <c r="Q52">
-        <v>4246</v>
+        <v>4110</v>
       </c>
       <c r="R52" t="s">
         <v>313</v>
       </c>
       <c r="S52" t="s">
-        <v>369</v>
+        <v>363</v>
       </c>
       <c r="T52" t="s">
         <v>315</v>
@@ -4951,13 +4953,13 @@
     </row>
     <row r="53" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
-        <v>191</v>
+        <v>265</v>
       </c>
       <c r="B53" t="s">
         <v>0</v>
       </c>
       <c r="C53" t="s">
-        <v>1</v>
+        <v>86</v>
       </c>
       <c r="D53" t="s">
         <v>128</v>
@@ -4966,46 +4968,46 @@
         <v>2</v>
       </c>
       <c r="F53" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="G53">
         <v>536</v>
       </c>
       <c r="H53">
-        <v>157</v>
+        <v>147</v>
       </c>
       <c r="I53" t="s">
-        <v>57</v>
+        <v>110</v>
       </c>
       <c r="J53" t="s">
-        <v>5</v>
+        <v>88</v>
       </c>
       <c r="K53" t="s">
         <v>7</v>
       </c>
       <c r="L53" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="M53">
-        <v>113</v>
+        <v>18</v>
       </c>
       <c r="N53" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="O53">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="P53" t="s">
-        <v>368</v>
+        <v>362</v>
       </c>
       <c r="Q53">
-        <v>4246</v>
+        <v>4110</v>
       </c>
       <c r="R53" t="s">
         <v>313</v>
       </c>
       <c r="S53" t="s">
-        <v>369</v>
+        <v>363</v>
       </c>
       <c r="T53" t="s">
         <v>315</v>
@@ -5013,7 +5015,7 @@
     </row>
     <row r="54" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
-        <v>192</v>
+        <v>214</v>
       </c>
       <c r="B54" t="s">
         <v>0</v>
@@ -5028,16 +5030,16 @@
         <v>2</v>
       </c>
       <c r="F54" t="s">
-        <v>58</v>
+        <v>80</v>
       </c>
       <c r="G54">
         <v>536</v>
       </c>
       <c r="H54">
-        <v>158</v>
+        <v>183</v>
       </c>
       <c r="I54" t="s">
-        <v>59</v>
+        <v>81</v>
       </c>
       <c r="J54" t="s">
         <v>5</v>
@@ -5058,16 +5060,16 @@
         <v>4</v>
       </c>
       <c r="P54" t="s">
-        <v>370</v>
-      </c>
-      <c r="Q54" t="s">
-        <v>371</v>
+        <v>394</v>
+      </c>
+      <c r="Q54">
+        <v>4112</v>
       </c>
       <c r="R54" t="s">
         <v>313</v>
       </c>
       <c r="S54" t="s">
-        <v>372</v>
+        <v>395</v>
       </c>
       <c r="T54" t="s">
         <v>315</v>
@@ -5075,7 +5077,7 @@
     </row>
     <row r="55" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
-        <v>193</v>
+        <v>215</v>
       </c>
       <c r="B55" t="s">
         <v>0</v>
@@ -5090,16 +5092,16 @@
         <v>2</v>
       </c>
       <c r="F55" t="s">
-        <v>58</v>
+        <v>80</v>
       </c>
       <c r="G55">
         <v>536</v>
       </c>
       <c r="H55">
-        <v>158</v>
+        <v>183</v>
       </c>
       <c r="I55" t="s">
-        <v>59</v>
+        <v>81</v>
       </c>
       <c r="J55" t="s">
         <v>5</v>
@@ -5120,16 +5122,16 @@
         <v>4</v>
       </c>
       <c r="P55" t="s">
-        <v>370</v>
-      </c>
-      <c r="Q55" t="s">
-        <v>371</v>
+        <v>394</v>
+      </c>
+      <c r="Q55">
+        <v>4112</v>
       </c>
       <c r="R55" t="s">
         <v>313</v>
       </c>
       <c r="S55" t="s">
-        <v>372</v>
+        <v>395</v>
       </c>
       <c r="T55" t="s">
         <v>315</v>
@@ -5137,13 +5139,13 @@
     </row>
     <row r="56" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
-        <v>194</v>
+        <v>294</v>
       </c>
       <c r="B56" t="s">
         <v>0</v>
       </c>
       <c r="C56" t="s">
-        <v>1</v>
+        <v>86</v>
       </c>
       <c r="D56" t="s">
         <v>128</v>
@@ -5152,46 +5154,46 @@
         <v>2</v>
       </c>
       <c r="F56" t="s">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="G56">
         <v>536</v>
       </c>
       <c r="H56">
-        <v>159</v>
+        <v>183</v>
       </c>
       <c r="I56" t="s">
-        <v>61</v>
+        <v>125</v>
       </c>
       <c r="J56" t="s">
-        <v>5</v>
+        <v>88</v>
       </c>
       <c r="K56" t="s">
         <v>6</v>
       </c>
       <c r="L56" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="M56">
-        <v>113</v>
+        <v>18</v>
       </c>
       <c r="N56" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="O56">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="P56" t="s">
-        <v>373</v>
+        <v>394</v>
       </c>
       <c r="Q56">
-        <v>1051</v>
+        <v>4112</v>
       </c>
       <c r="R56" t="s">
         <v>313</v>
       </c>
       <c r="S56" t="s">
-        <v>374</v>
+        <v>395</v>
       </c>
       <c r="T56" t="s">
         <v>315</v>
@@ -5199,13 +5201,13 @@
     </row>
     <row r="57" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
-        <v>195</v>
+        <v>295</v>
       </c>
       <c r="B57" t="s">
         <v>0</v>
       </c>
       <c r="C57" t="s">
-        <v>1</v>
+        <v>86</v>
       </c>
       <c r="D57" t="s">
         <v>128</v>
@@ -5214,46 +5216,46 @@
         <v>2</v>
       </c>
       <c r="F57" t="s">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="G57">
         <v>536</v>
       </c>
       <c r="H57">
-        <v>159</v>
+        <v>183</v>
       </c>
       <c r="I57" t="s">
-        <v>61</v>
+        <v>125</v>
       </c>
       <c r="J57" t="s">
-        <v>5</v>
+        <v>88</v>
       </c>
       <c r="K57" t="s">
         <v>7</v>
       </c>
       <c r="L57" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="M57">
-        <v>113</v>
+        <v>18</v>
       </c>
       <c r="N57" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="O57">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="P57" t="s">
-        <v>373</v>
+        <v>394</v>
       </c>
       <c r="Q57">
-        <v>1051</v>
+        <v>4112</v>
       </c>
       <c r="R57" t="s">
         <v>313</v>
       </c>
       <c r="S57" t="s">
-        <v>374</v>
+        <v>395</v>
       </c>
       <c r="T57" t="s">
         <v>315</v>
@@ -5261,7 +5263,7 @@
     </row>
     <row r="58" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>196</v>
+        <v>146</v>
       </c>
       <c r="B58" t="s">
         <v>0</v>
@@ -5276,16 +5278,16 @@
         <v>2</v>
       </c>
       <c r="F58" t="s">
-        <v>62</v>
+        <v>12</v>
       </c>
       <c r="G58">
         <v>536</v>
       </c>
       <c r="H58">
-        <v>160</v>
+        <v>100</v>
       </c>
       <c r="I58" t="s">
-        <v>63</v>
+        <v>13</v>
       </c>
       <c r="J58" t="s">
         <v>5</v>
@@ -5306,16 +5308,16 @@
         <v>4</v>
       </c>
       <c r="P58" t="s">
-        <v>375</v>
+        <v>320</v>
       </c>
       <c r="Q58">
-        <v>5504</v>
+        <v>4118</v>
       </c>
       <c r="R58" t="s">
         <v>313</v>
       </c>
       <c r="S58" t="s">
-        <v>376</v>
+        <v>321</v>
       </c>
       <c r="T58" t="s">
         <v>315</v>
@@ -5323,7 +5325,7 @@
     </row>
     <row r="59" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
-        <v>197</v>
+        <v>147</v>
       </c>
       <c r="B59" t="s">
         <v>0</v>
@@ -5338,16 +5340,16 @@
         <v>2</v>
       </c>
       <c r="F59" t="s">
-        <v>62</v>
+        <v>12</v>
       </c>
       <c r="G59">
         <v>536</v>
       </c>
       <c r="H59">
-        <v>160</v>
+        <v>100</v>
       </c>
       <c r="I59" t="s">
-        <v>63</v>
+        <v>13</v>
       </c>
       <c r="J59" t="s">
         <v>5</v>
@@ -5368,16 +5370,16 @@
         <v>4</v>
       </c>
       <c r="P59" t="s">
-        <v>375</v>
+        <v>320</v>
       </c>
       <c r="Q59">
-        <v>5504</v>
+        <v>4118</v>
       </c>
       <c r="R59" t="s">
         <v>313</v>
       </c>
       <c r="S59" t="s">
-        <v>376</v>
+        <v>321</v>
       </c>
       <c r="T59" t="s">
         <v>315</v>
@@ -5385,13 +5387,13 @@
     </row>
     <row r="60" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
-        <v>198</v>
+        <v>226</v>
       </c>
       <c r="B60" t="s">
         <v>0</v>
       </c>
       <c r="C60" t="s">
-        <v>1</v>
+        <v>86</v>
       </c>
       <c r="D60" t="s">
         <v>128</v>
@@ -5400,46 +5402,46 @@
         <v>2</v>
       </c>
       <c r="F60" t="s">
-        <v>64</v>
+        <v>12</v>
       </c>
       <c r="G60">
         <v>536</v>
       </c>
       <c r="H60">
-        <v>161</v>
+        <v>100</v>
       </c>
       <c r="I60" t="s">
-        <v>65</v>
+        <v>91</v>
       </c>
       <c r="J60" t="s">
-        <v>5</v>
+        <v>88</v>
       </c>
       <c r="K60" t="s">
         <v>6</v>
       </c>
       <c r="L60" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="M60">
-        <v>113</v>
+        <v>18</v>
       </c>
       <c r="N60" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="O60">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="P60" t="s">
-        <v>377</v>
+        <v>320</v>
       </c>
       <c r="Q60">
-        <v>1059</v>
+        <v>4118</v>
       </c>
       <c r="R60" t="s">
         <v>313</v>
       </c>
       <c r="S60" t="s">
-        <v>378</v>
+        <v>321</v>
       </c>
       <c r="T60" t="s">
         <v>315</v>
@@ -5447,13 +5449,13 @@
     </row>
     <row r="61" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
-        <v>199</v>
+        <v>227</v>
       </c>
       <c r="B61" t="s">
         <v>0</v>
       </c>
       <c r="C61" t="s">
-        <v>1</v>
+        <v>86</v>
       </c>
       <c r="D61" t="s">
         <v>128</v>
@@ -5462,46 +5464,46 @@
         <v>2</v>
       </c>
       <c r="F61" t="s">
-        <v>64</v>
+        <v>12</v>
       </c>
       <c r="G61">
         <v>536</v>
       </c>
       <c r="H61">
-        <v>161</v>
+        <v>100</v>
       </c>
       <c r="I61" t="s">
-        <v>65</v>
+        <v>91</v>
       </c>
       <c r="J61" t="s">
-        <v>5</v>
+        <v>88</v>
       </c>
       <c r="K61" t="s">
         <v>7</v>
       </c>
       <c r="L61" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="M61">
-        <v>113</v>
+        <v>18</v>
       </c>
       <c r="N61" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="O61">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="P61" t="s">
-        <v>377</v>
+        <v>320</v>
       </c>
       <c r="Q61">
-        <v>1059</v>
+        <v>4118</v>
       </c>
       <c r="R61" t="s">
         <v>313</v>
       </c>
       <c r="S61" t="s">
-        <v>378</v>
+        <v>321</v>
       </c>
       <c r="T61" t="s">
         <v>315</v>
@@ -5509,7 +5511,7 @@
     </row>
     <row r="62" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
-        <v>200</v>
+        <v>140</v>
       </c>
       <c r="B62" t="s">
         <v>0</v>
@@ -5524,16 +5526,16 @@
         <v>2</v>
       </c>
       <c r="F62" t="s">
-        <v>66</v>
+        <v>3</v>
       </c>
       <c r="G62">
         <v>536</v>
       </c>
       <c r="H62">
-        <v>169</v>
+        <v>97</v>
       </c>
       <c r="I62" t="s">
-        <v>67</v>
+        <v>4</v>
       </c>
       <c r="J62" t="s">
         <v>5</v>
@@ -5554,16 +5556,16 @@
         <v>4</v>
       </c>
       <c r="P62" t="s">
-        <v>379</v>
-      </c>
-      <c r="Q62" t="s">
-        <v>380</v>
+        <v>312</v>
+      </c>
+      <c r="Q62">
+        <v>4190</v>
       </c>
       <c r="R62" t="s">
         <v>313</v>
       </c>
       <c r="S62" t="s">
-        <v>381</v>
+        <v>314</v>
       </c>
       <c r="T62" t="s">
         <v>315</v>
@@ -5571,7 +5573,7 @@
     </row>
     <row r="63" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
-        <v>201</v>
+        <v>141</v>
       </c>
       <c r="B63" t="s">
         <v>0</v>
@@ -5586,16 +5588,16 @@
         <v>2</v>
       </c>
       <c r="F63" t="s">
-        <v>66</v>
+        <v>3</v>
       </c>
       <c r="G63">
         <v>536</v>
       </c>
       <c r="H63">
-        <v>169</v>
+        <v>97</v>
       </c>
       <c r="I63" t="s">
-        <v>67</v>
+        <v>4</v>
       </c>
       <c r="J63" t="s">
         <v>5</v>
@@ -5616,16 +5618,16 @@
         <v>4</v>
       </c>
       <c r="P63" t="s">
-        <v>379</v>
-      </c>
-      <c r="Q63" t="s">
-        <v>380</v>
+        <v>312</v>
+      </c>
+      <c r="Q63">
+        <v>4190</v>
       </c>
       <c r="R63" t="s">
         <v>313</v>
       </c>
       <c r="S63" t="s">
-        <v>381</v>
+        <v>314</v>
       </c>
       <c r="T63" t="s">
         <v>315</v>
@@ -5633,13 +5635,13 @@
     </row>
     <row r="64" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
-        <v>202</v>
+        <v>220</v>
       </c>
       <c r="B64" t="s">
         <v>0</v>
       </c>
       <c r="C64" t="s">
-        <v>1</v>
+        <v>86</v>
       </c>
       <c r="D64" t="s">
         <v>128</v>
@@ -5648,46 +5650,46 @@
         <v>2</v>
       </c>
       <c r="F64" t="s">
-        <v>68</v>
+        <v>3</v>
       </c>
       <c r="G64">
         <v>536</v>
       </c>
       <c r="H64">
-        <v>170</v>
+        <v>97</v>
       </c>
       <c r="I64" t="s">
-        <v>69</v>
+        <v>87</v>
       </c>
       <c r="J64" t="s">
-        <v>5</v>
+        <v>88</v>
       </c>
       <c r="K64" t="s">
         <v>6</v>
       </c>
       <c r="L64" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="M64">
-        <v>113</v>
+        <v>18</v>
       </c>
       <c r="N64" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="O64">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="P64" t="s">
-        <v>382</v>
+        <v>312</v>
       </c>
       <c r="Q64">
-        <v>5500</v>
+        <v>4190</v>
       </c>
       <c r="R64" t="s">
         <v>313</v>
       </c>
       <c r="S64" t="s">
-        <v>383</v>
+        <v>314</v>
       </c>
       <c r="T64" t="s">
         <v>315</v>
@@ -5695,13 +5697,13 @@
     </row>
     <row r="65" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
-        <v>203</v>
+        <v>221</v>
       </c>
       <c r="B65" t="s">
         <v>0</v>
       </c>
       <c r="C65" t="s">
-        <v>1</v>
+        <v>86</v>
       </c>
       <c r="D65" t="s">
         <v>128</v>
@@ -5710,46 +5712,46 @@
         <v>2</v>
       </c>
       <c r="F65" t="s">
-        <v>68</v>
+        <v>3</v>
       </c>
       <c r="G65">
         <v>536</v>
       </c>
       <c r="H65">
-        <v>170</v>
+        <v>97</v>
       </c>
       <c r="I65" t="s">
-        <v>69</v>
+        <v>87</v>
       </c>
       <c r="J65" t="s">
-        <v>5</v>
+        <v>88</v>
       </c>
       <c r="K65" t="s">
         <v>7</v>
       </c>
       <c r="L65" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="M65">
-        <v>113</v>
+        <v>18</v>
       </c>
       <c r="N65" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="O65">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="P65" t="s">
-        <v>382</v>
+        <v>312</v>
       </c>
       <c r="Q65">
-        <v>5500</v>
+        <v>4190</v>
       </c>
       <c r="R65" t="s">
         <v>313</v>
       </c>
       <c r="S65" t="s">
-        <v>383</v>
+        <v>314</v>
       </c>
       <c r="T65" t="s">
         <v>315</v>
@@ -5757,7 +5759,7 @@
     </row>
     <row r="66" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
-        <v>204</v>
+        <v>186</v>
       </c>
       <c r="B66" t="s">
         <v>0</v>
@@ -5772,16 +5774,16 @@
         <v>2</v>
       </c>
       <c r="F66" t="s">
-        <v>70</v>
+        <v>52</v>
       </c>
       <c r="G66">
         <v>536</v>
       </c>
       <c r="H66">
-        <v>171</v>
+        <v>148</v>
       </c>
       <c r="I66" t="s">
-        <v>71</v>
+        <v>53</v>
       </c>
       <c r="J66" t="s">
         <v>5</v>
@@ -5802,16 +5804,16 @@
         <v>4</v>
       </c>
       <c r="P66" t="s">
-        <v>384</v>
+        <v>364</v>
       </c>
       <c r="Q66">
-        <v>4505</v>
+        <v>4207</v>
       </c>
       <c r="R66" t="s">
         <v>313</v>
       </c>
       <c r="S66" t="s">
-        <v>385</v>
+        <v>365</v>
       </c>
       <c r="T66" t="s">
         <v>315</v>
@@ -5819,7 +5821,7 @@
     </row>
     <row r="67" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
-        <v>205</v>
+        <v>187</v>
       </c>
       <c r="B67" t="s">
         <v>0</v>
@@ -5834,16 +5836,16 @@
         <v>2</v>
       </c>
       <c r="F67" t="s">
-        <v>70</v>
+        <v>52</v>
       </c>
       <c r="G67">
         <v>536</v>
       </c>
       <c r="H67">
-        <v>171</v>
+        <v>148</v>
       </c>
       <c r="I67" t="s">
-        <v>71</v>
+        <v>53</v>
       </c>
       <c r="J67" t="s">
         <v>5</v>
@@ -5864,16 +5866,16 @@
         <v>4</v>
       </c>
       <c r="P67" t="s">
-        <v>384</v>
+        <v>364</v>
       </c>
       <c r="Q67">
-        <v>4505</v>
+        <v>4207</v>
       </c>
       <c r="R67" t="s">
         <v>313</v>
       </c>
       <c r="S67" t="s">
-        <v>385</v>
+        <v>365</v>
       </c>
       <c r="T67" t="s">
         <v>315</v>
@@ -5881,13 +5883,13 @@
     </row>
     <row r="68" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
-        <v>206</v>
+        <v>266</v>
       </c>
       <c r="B68" t="s">
         <v>0</v>
       </c>
       <c r="C68" t="s">
-        <v>1</v>
+        <v>86</v>
       </c>
       <c r="D68" t="s">
         <v>128</v>
@@ -5896,46 +5898,46 @@
         <v>2</v>
       </c>
       <c r="F68" t="s">
-        <v>72</v>
+        <v>52</v>
       </c>
       <c r="G68">
         <v>536</v>
       </c>
       <c r="H68">
-        <v>172</v>
+        <v>148</v>
       </c>
       <c r="I68" t="s">
-        <v>73</v>
+        <v>111</v>
       </c>
       <c r="J68" t="s">
-        <v>5</v>
+        <v>88</v>
       </c>
       <c r="K68" t="s">
         <v>6</v>
       </c>
       <c r="L68" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="M68">
-        <v>113</v>
+        <v>18</v>
       </c>
       <c r="N68" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="O68">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="P68" t="s">
-        <v>386</v>
+        <v>364</v>
       </c>
       <c r="Q68">
-        <v>2025</v>
+        <v>4207</v>
       </c>
       <c r="R68" t="s">
         <v>313</v>
       </c>
       <c r="S68" t="s">
-        <v>387</v>
+        <v>365</v>
       </c>
       <c r="T68" t="s">
         <v>315</v>
@@ -5943,13 +5945,13 @@
     </row>
     <row r="69" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
-        <v>207</v>
+        <v>267</v>
       </c>
       <c r="B69" t="s">
         <v>0</v>
       </c>
       <c r="C69" t="s">
-        <v>1</v>
+        <v>86</v>
       </c>
       <c r="D69" t="s">
         <v>128</v>
@@ -5958,46 +5960,46 @@
         <v>2</v>
       </c>
       <c r="F69" t="s">
-        <v>72</v>
+        <v>52</v>
       </c>
       <c r="G69">
         <v>536</v>
       </c>
       <c r="H69">
-        <v>172</v>
+        <v>148</v>
       </c>
       <c r="I69" t="s">
-        <v>73</v>
+        <v>111</v>
       </c>
       <c r="J69" t="s">
-        <v>5</v>
+        <v>88</v>
       </c>
       <c r="K69" t="s">
         <v>7</v>
       </c>
       <c r="L69" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="M69">
-        <v>113</v>
+        <v>18</v>
       </c>
       <c r="N69" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="O69">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="P69" t="s">
-        <v>386</v>
+        <v>364</v>
       </c>
       <c r="Q69">
-        <v>2025</v>
+        <v>4207</v>
       </c>
       <c r="R69" t="s">
         <v>313</v>
       </c>
       <c r="S69" t="s">
-        <v>387</v>
+        <v>365</v>
       </c>
       <c r="T69" t="s">
         <v>315</v>
@@ -6005,7 +6007,7 @@
     </row>
     <row r="70" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
-        <v>208</v>
+        <v>154</v>
       </c>
       <c r="B70" t="s">
         <v>0</v>
@@ -6020,16 +6022,16 @@
         <v>2</v>
       </c>
       <c r="F70" t="s">
-        <v>74</v>
+        <v>20</v>
       </c>
       <c r="G70">
         <v>536</v>
       </c>
       <c r="H70">
-        <v>173</v>
+        <v>111</v>
       </c>
       <c r="I70" t="s">
-        <v>75</v>
+        <v>21</v>
       </c>
       <c r="J70" t="s">
         <v>5</v>
@@ -6050,16 +6052,16 @@
         <v>4</v>
       </c>
       <c r="P70" t="s">
-        <v>388</v>
+        <v>329</v>
       </c>
       <c r="Q70">
-        <v>4241</v>
+        <v>4216</v>
       </c>
       <c r="R70" t="s">
         <v>313</v>
       </c>
       <c r="S70" t="s">
-        <v>389</v>
+        <v>330</v>
       </c>
       <c r="T70" t="s">
         <v>315</v>
@@ -6067,7 +6069,7 @@
     </row>
     <row r="71" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
-        <v>209</v>
+        <v>155</v>
       </c>
       <c r="B71" t="s">
         <v>0</v>
@@ -6082,16 +6084,16 @@
         <v>2</v>
       </c>
       <c r="F71" t="s">
-        <v>74</v>
+        <v>20</v>
       </c>
       <c r="G71">
         <v>536</v>
       </c>
       <c r="H71">
-        <v>173</v>
+        <v>111</v>
       </c>
       <c r="I71" t="s">
-        <v>75</v>
+        <v>21</v>
       </c>
       <c r="J71" t="s">
         <v>5</v>
@@ -6112,16 +6114,16 @@
         <v>4</v>
       </c>
       <c r="P71" t="s">
-        <v>388</v>
+        <v>329</v>
       </c>
       <c r="Q71">
-        <v>4241</v>
+        <v>4216</v>
       </c>
       <c r="R71" t="s">
         <v>313</v>
       </c>
       <c r="S71" t="s">
-        <v>389</v>
+        <v>330</v>
       </c>
       <c r="T71" t="s">
         <v>315</v>
@@ -6129,13 +6131,13 @@
     </row>
     <row r="72" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
-        <v>210</v>
+        <v>234</v>
       </c>
       <c r="B72" t="s">
         <v>0</v>
       </c>
       <c r="C72" t="s">
-        <v>1</v>
+        <v>86</v>
       </c>
       <c r="D72" t="s">
         <v>128</v>
@@ -6144,46 +6146,46 @@
         <v>2</v>
       </c>
       <c r="F72" t="s">
-        <v>76</v>
+        <v>20</v>
       </c>
       <c r="G72">
         <v>536</v>
       </c>
       <c r="H72">
-        <v>181</v>
+        <v>111</v>
       </c>
       <c r="I72" t="s">
-        <v>77</v>
+        <v>95</v>
       </c>
       <c r="J72" t="s">
-        <v>5</v>
+        <v>88</v>
       </c>
       <c r="K72" t="s">
         <v>6</v>
       </c>
       <c r="L72" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="M72">
-        <v>113</v>
+        <v>18</v>
       </c>
       <c r="N72" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="O72">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="P72" t="s">
-        <v>390</v>
+        <v>329</v>
       </c>
       <c r="Q72">
-        <v>1056</v>
+        <v>4216</v>
       </c>
       <c r="R72" t="s">
         <v>313</v>
       </c>
       <c r="S72" t="s">
-        <v>391</v>
+        <v>330</v>
       </c>
       <c r="T72" t="s">
         <v>315</v>
@@ -6191,13 +6193,13 @@
     </row>
     <row r="73" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
-        <v>211</v>
+        <v>235</v>
       </c>
       <c r="B73" t="s">
         <v>0</v>
       </c>
       <c r="C73" t="s">
-        <v>1</v>
+        <v>86</v>
       </c>
       <c r="D73" t="s">
         <v>128</v>
@@ -6206,46 +6208,46 @@
         <v>2</v>
       </c>
       <c r="F73" t="s">
-        <v>76</v>
+        <v>20</v>
       </c>
       <c r="G73">
         <v>536</v>
       </c>
       <c r="H73">
-        <v>181</v>
+        <v>111</v>
       </c>
       <c r="I73" t="s">
-        <v>77</v>
+        <v>95</v>
       </c>
       <c r="J73" t="s">
-        <v>5</v>
+        <v>88</v>
       </c>
       <c r="K73" t="s">
         <v>7</v>
       </c>
       <c r="L73" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="M73">
-        <v>113</v>
+        <v>18</v>
       </c>
       <c r="N73" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="O73">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="P73" t="s">
-        <v>390</v>
+        <v>329</v>
       </c>
       <c r="Q73">
-        <v>1056</v>
+        <v>4216</v>
       </c>
       <c r="R73" t="s">
         <v>313</v>
       </c>
       <c r="S73" t="s">
-        <v>391</v>
+        <v>330</v>
       </c>
       <c r="T73" t="s">
         <v>315</v>
@@ -6253,7 +6255,7 @@
     </row>
     <row r="74" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
-        <v>212</v>
+        <v>156</v>
       </c>
       <c r="B74" t="s">
         <v>0</v>
@@ -6268,16 +6270,16 @@
         <v>2</v>
       </c>
       <c r="F74" t="s">
-        <v>78</v>
+        <v>22</v>
       </c>
       <c r="G74">
         <v>536</v>
       </c>
       <c r="H74">
-        <v>182</v>
+        <v>112</v>
       </c>
       <c r="I74" t="s">
-        <v>79</v>
+        <v>23</v>
       </c>
       <c r="J74" t="s">
         <v>5</v>
@@ -6298,16 +6300,16 @@
         <v>4</v>
       </c>
       <c r="P74" t="s">
-        <v>392</v>
+        <v>331</v>
       </c>
       <c r="Q74">
-        <v>1128</v>
+        <v>4220</v>
       </c>
       <c r="R74" t="s">
         <v>313</v>
       </c>
       <c r="S74" t="s">
-        <v>393</v>
+        <v>332</v>
       </c>
       <c r="T74" t="s">
         <v>315</v>
@@ -6315,7 +6317,7 @@
     </row>
     <row r="75" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
-        <v>213</v>
+        <v>157</v>
       </c>
       <c r="B75" t="s">
         <v>0</v>
@@ -6330,16 +6332,16 @@
         <v>2</v>
       </c>
       <c r="F75" t="s">
-        <v>78</v>
+        <v>22</v>
       </c>
       <c r="G75">
         <v>536</v>
       </c>
       <c r="H75">
-        <v>182</v>
+        <v>112</v>
       </c>
       <c r="I75" t="s">
-        <v>79</v>
+        <v>23</v>
       </c>
       <c r="J75" t="s">
         <v>5</v>
@@ -6360,16 +6362,16 @@
         <v>4</v>
       </c>
       <c r="P75" t="s">
-        <v>392</v>
+        <v>331</v>
       </c>
       <c r="Q75">
-        <v>1128</v>
+        <v>4220</v>
       </c>
       <c r="R75" t="s">
         <v>313</v>
       </c>
       <c r="S75" t="s">
-        <v>393</v>
+        <v>332</v>
       </c>
       <c r="T75" t="s">
         <v>315</v>
@@ -6377,13 +6379,13 @@
     </row>
     <row r="76" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
-        <v>214</v>
+        <v>236</v>
       </c>
       <c r="B76" t="s">
         <v>0</v>
       </c>
       <c r="C76" t="s">
-        <v>1</v>
+        <v>86</v>
       </c>
       <c r="D76" t="s">
         <v>128</v>
@@ -6392,46 +6394,46 @@
         <v>2</v>
       </c>
       <c r="F76" t="s">
-        <v>80</v>
+        <v>22</v>
       </c>
       <c r="G76">
         <v>536</v>
       </c>
       <c r="H76">
-        <v>183</v>
+        <v>112</v>
       </c>
       <c r="I76" t="s">
-        <v>81</v>
+        <v>96</v>
       </c>
       <c r="J76" t="s">
-        <v>5</v>
+        <v>88</v>
       </c>
       <c r="K76" t="s">
         <v>6</v>
       </c>
       <c r="L76" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="M76">
-        <v>113</v>
+        <v>18</v>
       </c>
       <c r="N76" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="O76">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="P76" t="s">
-        <v>394</v>
+        <v>331</v>
       </c>
       <c r="Q76">
-        <v>4112</v>
+        <v>4220</v>
       </c>
       <c r="R76" t="s">
         <v>313</v>
       </c>
       <c r="S76" t="s">
-        <v>395</v>
+        <v>332</v>
       </c>
       <c r="T76" t="s">
         <v>315</v>
@@ -6439,13 +6441,13 @@
     </row>
     <row r="77" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
-        <v>215</v>
+        <v>237</v>
       </c>
       <c r="B77" t="s">
         <v>0</v>
       </c>
       <c r="C77" t="s">
-        <v>1</v>
+        <v>86</v>
       </c>
       <c r="D77" t="s">
         <v>128</v>
@@ -6454,46 +6456,46 @@
         <v>2</v>
       </c>
       <c r="F77" t="s">
-        <v>80</v>
+        <v>22</v>
       </c>
       <c r="G77">
         <v>536</v>
       </c>
       <c r="H77">
-        <v>183</v>
+        <v>112</v>
       </c>
       <c r="I77" t="s">
-        <v>81</v>
+        <v>96</v>
       </c>
       <c r="J77" t="s">
-        <v>5</v>
+        <v>88</v>
       </c>
       <c r="K77" t="s">
         <v>7</v>
       </c>
       <c r="L77" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="M77">
-        <v>113</v>
+        <v>18</v>
       </c>
       <c r="N77" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="O77">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="P77" t="s">
-        <v>394</v>
+        <v>331</v>
       </c>
       <c r="Q77">
-        <v>4112</v>
+        <v>4220</v>
       </c>
       <c r="R77" t="s">
         <v>313</v>
       </c>
       <c r="S77" t="s">
-        <v>395</v>
+        <v>332</v>
       </c>
       <c r="T77" t="s">
         <v>315</v>
@@ -6501,7 +6503,7 @@
     </row>
     <row r="78" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
-        <v>216</v>
+        <v>162</v>
       </c>
       <c r="B78" t="s">
         <v>0</v>
@@ -6516,16 +6518,16 @@
         <v>2</v>
       </c>
       <c r="F78" t="s">
-        <v>82</v>
+        <v>28</v>
       </c>
       <c r="G78">
         <v>536</v>
       </c>
       <c r="H78">
-        <v>184</v>
+        <v>122</v>
       </c>
       <c r="I78" t="s">
-        <v>83</v>
+        <v>29</v>
       </c>
       <c r="J78" t="s">
         <v>5</v>
@@ -6546,16 +6548,16 @@
         <v>4</v>
       </c>
       <c r="P78" t="s">
-        <v>396</v>
+        <v>337</v>
       </c>
       <c r="Q78">
-        <v>4507</v>
+        <v>4223</v>
       </c>
       <c r="R78" t="s">
         <v>313</v>
       </c>
       <c r="S78" t="s">
-        <v>397</v>
+        <v>338</v>
       </c>
       <c r="T78" t="s">
         <v>315</v>
@@ -6563,7 +6565,7 @@
     </row>
     <row r="79" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
-        <v>217</v>
+        <v>163</v>
       </c>
       <c r="B79" t="s">
         <v>0</v>
@@ -6578,16 +6580,16 @@
         <v>2</v>
       </c>
       <c r="F79" t="s">
-        <v>82</v>
+        <v>28</v>
       </c>
       <c r="G79">
         <v>536</v>
       </c>
       <c r="H79">
-        <v>184</v>
+        <v>122</v>
       </c>
       <c r="I79" t="s">
-        <v>83</v>
+        <v>29</v>
       </c>
       <c r="J79" t="s">
         <v>5</v>
@@ -6608,16 +6610,16 @@
         <v>4</v>
       </c>
       <c r="P79" t="s">
-        <v>396</v>
+        <v>337</v>
       </c>
       <c r="Q79">
-        <v>4507</v>
+        <v>4223</v>
       </c>
       <c r="R79" t="s">
         <v>313</v>
       </c>
       <c r="S79" t="s">
-        <v>397</v>
+        <v>338</v>
       </c>
       <c r="T79" t="s">
         <v>315</v>
@@ -6625,13 +6627,13 @@
     </row>
     <row r="80" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
-        <v>218</v>
+        <v>242</v>
       </c>
       <c r="B80" t="s">
         <v>0</v>
       </c>
       <c r="C80" t="s">
-        <v>1</v>
+        <v>86</v>
       </c>
       <c r="D80" t="s">
         <v>128</v>
@@ -6640,46 +6642,46 @@
         <v>2</v>
       </c>
       <c r="F80" t="s">
-        <v>84</v>
+        <v>28</v>
       </c>
       <c r="G80">
         <v>536</v>
       </c>
       <c r="H80">
-        <v>185</v>
+        <v>122</v>
       </c>
       <c r="I80" t="s">
-        <v>85</v>
+        <v>99</v>
       </c>
       <c r="J80" t="s">
-        <v>5</v>
+        <v>88</v>
       </c>
       <c r="K80" t="s">
         <v>6</v>
       </c>
       <c r="L80" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="M80">
-        <v>113</v>
+        <v>18</v>
       </c>
       <c r="N80" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="O80">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="P80" t="s">
-        <v>398</v>
+        <v>337</v>
       </c>
       <c r="Q80">
-        <v>5509</v>
+        <v>4223</v>
       </c>
       <c r="R80" t="s">
         <v>313</v>
       </c>
       <c r="S80" t="s">
-        <v>399</v>
+        <v>338</v>
       </c>
       <c r="T80" t="s">
         <v>315</v>
@@ -6687,13 +6689,13 @@
     </row>
     <row r="81" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
-        <v>219</v>
+        <v>243</v>
       </c>
       <c r="B81" t="s">
         <v>0</v>
       </c>
       <c r="C81" t="s">
-        <v>1</v>
+        <v>86</v>
       </c>
       <c r="D81" t="s">
         <v>128</v>
@@ -6702,46 +6704,46 @@
         <v>2</v>
       </c>
       <c r="F81" t="s">
-        <v>84</v>
+        <v>28</v>
       </c>
       <c r="G81">
         <v>536</v>
       </c>
       <c r="H81">
-        <v>185</v>
+        <v>122</v>
       </c>
       <c r="I81" t="s">
-        <v>85</v>
+        <v>99</v>
       </c>
       <c r="J81" t="s">
-        <v>5</v>
+        <v>88</v>
       </c>
       <c r="K81" t="s">
         <v>7</v>
       </c>
       <c r="L81" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="M81">
-        <v>113</v>
+        <v>18</v>
       </c>
       <c r="N81" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="O81">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="P81" t="s">
-        <v>398</v>
+        <v>337</v>
       </c>
       <c r="Q81">
-        <v>5509</v>
+        <v>4223</v>
       </c>
       <c r="R81" t="s">
         <v>313</v>
       </c>
       <c r="S81" t="s">
-        <v>399</v>
+        <v>338</v>
       </c>
       <c r="T81" t="s">
         <v>315</v>
@@ -6749,13 +6751,13 @@
     </row>
     <row r="82" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
-        <v>220</v>
+        <v>182</v>
       </c>
       <c r="B82" t="s">
         <v>0</v>
       </c>
       <c r="C82" t="s">
-        <v>86</v>
+        <v>1</v>
       </c>
       <c r="D82" t="s">
         <v>128</v>
@@ -6764,46 +6766,46 @@
         <v>2</v>
       </c>
       <c r="F82" t="s">
-        <v>3</v>
+        <v>48</v>
       </c>
       <c r="G82">
         <v>536</v>
       </c>
       <c r="H82">
-        <v>97</v>
+        <v>146</v>
       </c>
       <c r="I82" t="s">
-        <v>87</v>
+        <v>49</v>
       </c>
       <c r="J82" t="s">
-        <v>88</v>
+        <v>5</v>
       </c>
       <c r="K82" t="s">
         <v>6</v>
       </c>
       <c r="L82" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="M82">
-        <v>18</v>
+        <v>113</v>
       </c>
       <c r="N82" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="O82">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="P82" t="s">
-        <v>312</v>
+        <v>360</v>
       </c>
       <c r="Q82">
-        <v>4190</v>
+        <v>4224</v>
       </c>
       <c r="R82" t="s">
         <v>313</v>
       </c>
       <c r="S82" t="s">
-        <v>314</v>
+        <v>361</v>
       </c>
       <c r="T82" t="s">
         <v>315</v>
@@ -6811,13 +6813,13 @@
     </row>
     <row r="83" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
-        <v>221</v>
+        <v>183</v>
       </c>
       <c r="B83" t="s">
         <v>0</v>
       </c>
       <c r="C83" t="s">
-        <v>86</v>
+        <v>1</v>
       </c>
       <c r="D83" t="s">
         <v>128</v>
@@ -6826,46 +6828,46 @@
         <v>2</v>
       </c>
       <c r="F83" t="s">
-        <v>3</v>
+        <v>48</v>
       </c>
       <c r="G83">
         <v>536</v>
       </c>
       <c r="H83">
-        <v>97</v>
+        <v>146</v>
       </c>
       <c r="I83" t="s">
-        <v>87</v>
+        <v>49</v>
       </c>
       <c r="J83" t="s">
-        <v>88</v>
+        <v>5</v>
       </c>
       <c r="K83" t="s">
         <v>7</v>
       </c>
       <c r="L83" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="M83">
-        <v>18</v>
+        <v>113</v>
       </c>
       <c r="N83" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="O83">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="P83" t="s">
-        <v>312</v>
+        <v>360</v>
       </c>
       <c r="Q83">
-        <v>4190</v>
+        <v>4224</v>
       </c>
       <c r="R83" t="s">
         <v>313</v>
       </c>
       <c r="S83" t="s">
-        <v>314</v>
+        <v>361</v>
       </c>
       <c r="T83" t="s">
         <v>315</v>
@@ -6873,7 +6875,7 @@
     </row>
     <row r="84" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
-        <v>222</v>
+        <v>262</v>
       </c>
       <c r="B84" t="s">
         <v>0</v>
@@ -6888,16 +6890,16 @@
         <v>2</v>
       </c>
       <c r="F84" t="s">
-        <v>8</v>
+        <v>48</v>
       </c>
       <c r="G84">
         <v>536</v>
       </c>
       <c r="H84">
-        <v>98</v>
+        <v>146</v>
       </c>
       <c r="I84" t="s">
-        <v>89</v>
+        <v>109</v>
       </c>
       <c r="J84" t="s">
         <v>88</v>
@@ -6918,16 +6920,16 @@
         <v>2</v>
       </c>
       <c r="P84" t="s">
-        <v>316</v>
+        <v>360</v>
       </c>
       <c r="Q84">
-        <v>1119</v>
+        <v>4224</v>
       </c>
       <c r="R84" t="s">
         <v>313</v>
       </c>
       <c r="S84" t="s">
-        <v>317</v>
+        <v>361</v>
       </c>
       <c r="T84" t="s">
         <v>315</v>
@@ -6935,7 +6937,7 @@
     </row>
     <row r="85" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
-        <v>223</v>
+        <v>263</v>
       </c>
       <c r="B85" t="s">
         <v>0</v>
@@ -6950,16 +6952,16 @@
         <v>2</v>
       </c>
       <c r="F85" t="s">
-        <v>8</v>
+        <v>48</v>
       </c>
       <c r="G85">
         <v>536</v>
       </c>
       <c r="H85">
-        <v>98</v>
+        <v>146</v>
       </c>
       <c r="I85" t="s">
-        <v>89</v>
+        <v>109</v>
       </c>
       <c r="J85" t="s">
         <v>88</v>
@@ -6980,16 +6982,16 @@
         <v>2</v>
       </c>
       <c r="P85" t="s">
-        <v>316</v>
+        <v>360</v>
       </c>
       <c r="Q85">
-        <v>1119</v>
+        <v>4224</v>
       </c>
       <c r="R85" t="s">
         <v>313</v>
       </c>
       <c r="S85" t="s">
-        <v>317</v>
+        <v>361</v>
       </c>
       <c r="T85" t="s">
         <v>315</v>
@@ -6997,13 +6999,13 @@
     </row>
     <row r="86" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
-        <v>224</v>
+        <v>164</v>
       </c>
       <c r="B86" t="s">
         <v>0</v>
       </c>
       <c r="C86" t="s">
-        <v>86</v>
+        <v>1</v>
       </c>
       <c r="D86" t="s">
         <v>128</v>
@@ -7012,46 +7014,46 @@
         <v>2</v>
       </c>
       <c r="F86" t="s">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="G86">
         <v>536</v>
       </c>
       <c r="H86">
-        <v>99</v>
+        <v>123</v>
       </c>
       <c r="I86" t="s">
-        <v>90</v>
+        <v>31</v>
       </c>
       <c r="J86" t="s">
-        <v>88</v>
+        <v>5</v>
       </c>
       <c r="K86" t="s">
         <v>6</v>
       </c>
       <c r="L86" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="M86">
-        <v>18</v>
+        <v>113</v>
       </c>
       <c r="N86" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="O86">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="P86" t="s">
-        <v>318</v>
+        <v>339</v>
       </c>
       <c r="Q86">
-        <v>6015</v>
+        <v>4229</v>
       </c>
       <c r="R86" t="s">
         <v>313</v>
       </c>
       <c r="S86" t="s">
-        <v>319</v>
+        <v>340</v>
       </c>
       <c r="T86" t="s">
         <v>315</v>
@@ -7059,13 +7061,13 @@
     </row>
     <row r="87" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
-        <v>225</v>
+        <v>165</v>
       </c>
       <c r="B87" t="s">
         <v>0</v>
       </c>
       <c r="C87" t="s">
-        <v>86</v>
+        <v>1</v>
       </c>
       <c r="D87" t="s">
         <v>128</v>
@@ -7074,46 +7076,46 @@
         <v>2</v>
       </c>
       <c r="F87" t="s">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="G87">
         <v>536</v>
       </c>
       <c r="H87">
-        <v>99</v>
+        <v>123</v>
       </c>
       <c r="I87" t="s">
-        <v>90</v>
+        <v>31</v>
       </c>
       <c r="J87" t="s">
-        <v>88</v>
+        <v>5</v>
       </c>
       <c r="K87" t="s">
         <v>7</v>
       </c>
       <c r="L87" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="M87">
-        <v>18</v>
+        <v>113</v>
       </c>
       <c r="N87" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="O87">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="P87" t="s">
-        <v>318</v>
+        <v>339</v>
       </c>
       <c r="Q87">
-        <v>6015</v>
+        <v>4229</v>
       </c>
       <c r="R87" t="s">
         <v>313</v>
       </c>
       <c r="S87" t="s">
-        <v>319</v>
+        <v>340</v>
       </c>
       <c r="T87" t="s">
         <v>315</v>
@@ -7121,7 +7123,7 @@
     </row>
     <row r="88" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
-        <v>226</v>
+        <v>244</v>
       </c>
       <c r="B88" t="s">
         <v>0</v>
@@ -7136,16 +7138,16 @@
         <v>2</v>
       </c>
       <c r="F88" t="s">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="G88">
         <v>536</v>
       </c>
       <c r="H88">
+        <v>123</v>
+      </c>
+      <c r="I88" t="s">
         <v>100</v>
-      </c>
-      <c r="I88" t="s">
-        <v>91</v>
       </c>
       <c r="J88" t="s">
         <v>88</v>
@@ -7166,16 +7168,16 @@
         <v>2</v>
       </c>
       <c r="P88" t="s">
-        <v>320</v>
+        <v>339</v>
       </c>
       <c r="Q88">
-        <v>4118</v>
+        <v>4229</v>
       </c>
       <c r="R88" t="s">
         <v>313</v>
       </c>
       <c r="S88" t="s">
-        <v>321</v>
+        <v>340</v>
       </c>
       <c r="T88" t="s">
         <v>315</v>
@@ -7183,7 +7185,7 @@
     </row>
     <row r="89" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
-        <v>227</v>
+        <v>245</v>
       </c>
       <c r="B89" t="s">
         <v>0</v>
@@ -7198,16 +7200,16 @@
         <v>2</v>
       </c>
       <c r="F89" t="s">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="G89">
         <v>536</v>
       </c>
       <c r="H89">
+        <v>123</v>
+      </c>
+      <c r="I89" t="s">
         <v>100</v>
-      </c>
-      <c r="I89" t="s">
-        <v>91</v>
       </c>
       <c r="J89" t="s">
         <v>88</v>
@@ -7228,16 +7230,16 @@
         <v>2</v>
       </c>
       <c r="P89" t="s">
-        <v>320</v>
+        <v>339</v>
       </c>
       <c r="Q89">
-        <v>4118</v>
+        <v>4229</v>
       </c>
       <c r="R89" t="s">
         <v>313</v>
       </c>
       <c r="S89" t="s">
-        <v>321</v>
+        <v>340</v>
       </c>
       <c r="T89" t="s">
         <v>315</v>
@@ -7245,13 +7247,13 @@
     </row>
     <row r="90" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
-        <v>228</v>
+        <v>208</v>
       </c>
       <c r="B90" t="s">
         <v>0</v>
       </c>
       <c r="C90" t="s">
-        <v>86</v>
+        <v>1</v>
       </c>
       <c r="D90" t="s">
         <v>128</v>
@@ -7260,46 +7262,46 @@
         <v>2</v>
       </c>
       <c r="F90" t="s">
-        <v>14</v>
+        <v>74</v>
       </c>
       <c r="G90">
         <v>536</v>
       </c>
       <c r="H90">
-        <v>101</v>
+        <v>173</v>
       </c>
       <c r="I90" t="s">
-        <v>92</v>
+        <v>75</v>
       </c>
       <c r="J90" t="s">
-        <v>88</v>
+        <v>5</v>
       </c>
       <c r="K90" t="s">
         <v>6</v>
       </c>
       <c r="L90" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="M90">
-        <v>18</v>
+        <v>113</v>
       </c>
       <c r="N90" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="O90">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="P90" t="s">
-        <v>322</v>
-      </c>
-      <c r="Q90" t="s">
-        <v>323</v>
+        <v>388</v>
+      </c>
+      <c r="Q90">
+        <v>4241</v>
       </c>
       <c r="R90" t="s">
         <v>313</v>
       </c>
       <c r="S90" t="s">
-        <v>324</v>
+        <v>389</v>
       </c>
       <c r="T90" t="s">
         <v>315</v>
@@ -7307,13 +7309,13 @@
     </row>
     <row r="91" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
-        <v>229</v>
+        <v>209</v>
       </c>
       <c r="B91" t="s">
         <v>0</v>
       </c>
       <c r="C91" t="s">
-        <v>86</v>
+        <v>1</v>
       </c>
       <c r="D91" t="s">
         <v>128</v>
@@ -7322,46 +7324,46 @@
         <v>2</v>
       </c>
       <c r="F91" t="s">
-        <v>14</v>
+        <v>74</v>
       </c>
       <c r="G91">
         <v>536</v>
       </c>
       <c r="H91">
-        <v>101</v>
+        <v>173</v>
       </c>
       <c r="I91" t="s">
-        <v>92</v>
+        <v>75</v>
       </c>
       <c r="J91" t="s">
-        <v>88</v>
+        <v>5</v>
       </c>
       <c r="K91" t="s">
         <v>7</v>
       </c>
       <c r="L91" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="M91">
-        <v>18</v>
+        <v>113</v>
       </c>
       <c r="N91" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="O91">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="P91" t="s">
-        <v>322</v>
-      </c>
-      <c r="Q91" t="s">
-        <v>323</v>
+        <v>388</v>
+      </c>
+      <c r="Q91">
+        <v>4241</v>
       </c>
       <c r="R91" t="s">
         <v>313</v>
       </c>
       <c r="S91" t="s">
-        <v>324</v>
+        <v>389</v>
       </c>
       <c r="T91" t="s">
         <v>315</v>
@@ -7369,7 +7371,7 @@
     </row>
     <row r="92" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
-        <v>230</v>
+        <v>288</v>
       </c>
       <c r="B92" t="s">
         <v>0</v>
@@ -7384,16 +7386,16 @@
         <v>2</v>
       </c>
       <c r="F92" t="s">
-        <v>16</v>
+        <v>74</v>
       </c>
       <c r="G92">
         <v>536</v>
       </c>
       <c r="H92">
-        <v>109</v>
+        <v>173</v>
       </c>
       <c r="I92" t="s">
-        <v>93</v>
+        <v>122</v>
       </c>
       <c r="J92" t="s">
         <v>88</v>
@@ -7414,16 +7416,16 @@
         <v>2</v>
       </c>
       <c r="P92" t="s">
-        <v>325</v>
+        <v>388</v>
       </c>
       <c r="Q92">
-        <v>5506</v>
+        <v>4241</v>
       </c>
       <c r="R92" t="s">
         <v>313</v>
       </c>
       <c r="S92" t="s">
-        <v>326</v>
+        <v>389</v>
       </c>
       <c r="T92" t="s">
         <v>315</v>
@@ -7431,7 +7433,7 @@
     </row>
     <row r="93" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
-        <v>231</v>
+        <v>289</v>
       </c>
       <c r="B93" t="s">
         <v>0</v>
@@ -7446,16 +7448,16 @@
         <v>2</v>
       </c>
       <c r="F93" t="s">
-        <v>16</v>
+        <v>74</v>
       </c>
       <c r="G93">
         <v>536</v>
       </c>
       <c r="H93">
-        <v>109</v>
+        <v>173</v>
       </c>
       <c r="I93" t="s">
-        <v>93</v>
+        <v>122</v>
       </c>
       <c r="J93" t="s">
         <v>88</v>
@@ -7476,16 +7478,16 @@
         <v>2</v>
       </c>
       <c r="P93" t="s">
-        <v>325</v>
+        <v>388</v>
       </c>
       <c r="Q93">
-        <v>5506</v>
+        <v>4241</v>
       </c>
       <c r="R93" t="s">
         <v>313</v>
       </c>
       <c r="S93" t="s">
-        <v>326</v>
+        <v>389</v>
       </c>
       <c r="T93" t="s">
         <v>315</v>
@@ -7493,13 +7495,13 @@
     </row>
     <row r="94" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
-        <v>232</v>
+        <v>190</v>
       </c>
       <c r="B94" t="s">
         <v>0</v>
       </c>
       <c r="C94" t="s">
-        <v>86</v>
+        <v>1</v>
       </c>
       <c r="D94" t="s">
         <v>128</v>
@@ -7508,46 +7510,46 @@
         <v>2</v>
       </c>
       <c r="F94" t="s">
-        <v>18</v>
+        <v>56</v>
       </c>
       <c r="G94">
         <v>536</v>
       </c>
       <c r="H94">
-        <v>110</v>
+        <v>157</v>
       </c>
       <c r="I94" t="s">
-        <v>94</v>
+        <v>57</v>
       </c>
       <c r="J94" t="s">
-        <v>88</v>
+        <v>5</v>
       </c>
       <c r="K94" t="s">
         <v>6</v>
       </c>
       <c r="L94" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="M94">
-        <v>18</v>
+        <v>113</v>
       </c>
       <c r="N94" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="O94">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="P94" t="s">
-        <v>327</v>
+        <v>368</v>
       </c>
       <c r="Q94">
-        <v>6024</v>
+        <v>4246</v>
       </c>
       <c r="R94" t="s">
         <v>313</v>
       </c>
       <c r="S94" t="s">
-        <v>328</v>
+        <v>369</v>
       </c>
       <c r="T94" t="s">
         <v>315</v>
@@ -7555,13 +7557,13 @@
     </row>
     <row r="95" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
-        <v>233</v>
+        <v>191</v>
       </c>
       <c r="B95" t="s">
         <v>0</v>
       </c>
       <c r="C95" t="s">
-        <v>86</v>
+        <v>1</v>
       </c>
       <c r="D95" t="s">
         <v>128</v>
@@ -7570,46 +7572,46 @@
         <v>2</v>
       </c>
       <c r="F95" t="s">
-        <v>18</v>
+        <v>56</v>
       </c>
       <c r="G95">
         <v>536</v>
       </c>
       <c r="H95">
-        <v>110</v>
+        <v>157</v>
       </c>
       <c r="I95" t="s">
-        <v>94</v>
+        <v>57</v>
       </c>
       <c r="J95" t="s">
-        <v>88</v>
+        <v>5</v>
       </c>
       <c r="K95" t="s">
         <v>7</v>
       </c>
       <c r="L95" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="M95">
-        <v>18</v>
+        <v>113</v>
       </c>
       <c r="N95" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="O95">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="P95" t="s">
-        <v>327</v>
+        <v>368</v>
       </c>
       <c r="Q95">
-        <v>6024</v>
+        <v>4246</v>
       </c>
       <c r="R95" t="s">
         <v>313</v>
       </c>
       <c r="S95" t="s">
-        <v>328</v>
+        <v>369</v>
       </c>
       <c r="T95" t="s">
         <v>315</v>
@@ -7617,7 +7619,7 @@
     </row>
     <row r="96" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
-        <v>234</v>
+        <v>270</v>
       </c>
       <c r="B96" t="s">
         <v>0</v>
@@ -7632,16 +7634,16 @@
         <v>2</v>
       </c>
       <c r="F96" t="s">
-        <v>20</v>
+        <v>56</v>
       </c>
       <c r="G96">
         <v>536</v>
       </c>
       <c r="H96">
-        <v>111</v>
+        <v>157</v>
       </c>
       <c r="I96" t="s">
-        <v>95</v>
+        <v>113</v>
       </c>
       <c r="J96" t="s">
         <v>88</v>
@@ -7662,16 +7664,16 @@
         <v>2</v>
       </c>
       <c r="P96" t="s">
-        <v>329</v>
+        <v>368</v>
       </c>
       <c r="Q96">
-        <v>4216</v>
+        <v>4246</v>
       </c>
       <c r="R96" t="s">
         <v>313</v>
       </c>
       <c r="S96" t="s">
-        <v>330</v>
+        <v>369</v>
       </c>
       <c r="T96" t="s">
         <v>315</v>
@@ -7679,7 +7681,7 @@
     </row>
     <row r="97" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
-        <v>235</v>
+        <v>271</v>
       </c>
       <c r="B97" t="s">
         <v>0</v>
@@ -7694,16 +7696,16 @@
         <v>2</v>
       </c>
       <c r="F97" t="s">
-        <v>20</v>
+        <v>56</v>
       </c>
       <c r="G97">
         <v>536</v>
       </c>
       <c r="H97">
-        <v>111</v>
+        <v>157</v>
       </c>
       <c r="I97" t="s">
-        <v>95</v>
+        <v>113</v>
       </c>
       <c r="J97" t="s">
         <v>88</v>
@@ -7724,16 +7726,16 @@
         <v>2</v>
       </c>
       <c r="P97" t="s">
-        <v>329</v>
+        <v>368</v>
       </c>
       <c r="Q97">
-        <v>4216</v>
+        <v>4246</v>
       </c>
       <c r="R97" t="s">
         <v>313</v>
       </c>
       <c r="S97" t="s">
-        <v>330</v>
+        <v>369</v>
       </c>
       <c r="T97" t="s">
         <v>315</v>
@@ -7741,13 +7743,13 @@
     </row>
     <row r="98" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
-        <v>236</v>
+        <v>204</v>
       </c>
       <c r="B98" t="s">
         <v>0</v>
       </c>
       <c r="C98" t="s">
-        <v>86</v>
+        <v>1</v>
       </c>
       <c r="D98" t="s">
         <v>128</v>
@@ -7756,46 +7758,46 @@
         <v>2</v>
       </c>
       <c r="F98" t="s">
-        <v>22</v>
+        <v>70</v>
       </c>
       <c r="G98">
         <v>536</v>
       </c>
       <c r="H98">
-        <v>112</v>
+        <v>171</v>
       </c>
       <c r="I98" t="s">
-        <v>96</v>
+        <v>71</v>
       </c>
       <c r="J98" t="s">
-        <v>88</v>
+        <v>5</v>
       </c>
       <c r="K98" t="s">
         <v>6</v>
       </c>
       <c r="L98" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="M98">
-        <v>18</v>
+        <v>113</v>
       </c>
       <c r="N98" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="O98">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="P98" t="s">
-        <v>331</v>
+        <v>384</v>
       </c>
       <c r="Q98">
-        <v>4220</v>
+        <v>4505</v>
       </c>
       <c r="R98" t="s">
         <v>313</v>
       </c>
       <c r="S98" t="s">
-        <v>332</v>
+        <v>385</v>
       </c>
       <c r="T98" t="s">
         <v>315</v>
@@ -7803,13 +7805,13 @@
     </row>
     <row r="99" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
-        <v>237</v>
+        <v>205</v>
       </c>
       <c r="B99" t="s">
         <v>0</v>
       </c>
       <c r="C99" t="s">
-        <v>86</v>
+        <v>1</v>
       </c>
       <c r="D99" t="s">
         <v>128</v>
@@ -7818,46 +7820,46 @@
         <v>2</v>
       </c>
       <c r="F99" t="s">
-        <v>22</v>
+        <v>70</v>
       </c>
       <c r="G99">
         <v>536</v>
       </c>
       <c r="H99">
-        <v>112</v>
+        <v>171</v>
       </c>
       <c r="I99" t="s">
-        <v>96</v>
+        <v>71</v>
       </c>
       <c r="J99" t="s">
-        <v>88</v>
+        <v>5</v>
       </c>
       <c r="K99" t="s">
         <v>7</v>
       </c>
       <c r="L99" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="M99">
-        <v>18</v>
+        <v>113</v>
       </c>
       <c r="N99" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="O99">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="P99" t="s">
-        <v>331</v>
+        <v>384</v>
       </c>
       <c r="Q99">
-        <v>4220</v>
+        <v>4505</v>
       </c>
       <c r="R99" t="s">
         <v>313</v>
       </c>
       <c r="S99" t="s">
-        <v>332</v>
+        <v>385</v>
       </c>
       <c r="T99" t="s">
         <v>315</v>
@@ -7865,7 +7867,7 @@
     </row>
     <row r="100" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
-        <v>238</v>
+        <v>284</v>
       </c>
       <c r="B100" t="s">
         <v>0</v>
@@ -7880,16 +7882,16 @@
         <v>2</v>
       </c>
       <c r="F100" t="s">
-        <v>24</v>
+        <v>70</v>
       </c>
       <c r="G100">
         <v>536</v>
       </c>
       <c r="H100">
-        <v>113</v>
+        <v>171</v>
       </c>
       <c r="I100" t="s">
-        <v>97</v>
+        <v>120</v>
       </c>
       <c r="J100" t="s">
         <v>88</v>
@@ -7910,16 +7912,16 @@
         <v>2</v>
       </c>
       <c r="P100" t="s">
-        <v>333</v>
+        <v>384</v>
       </c>
       <c r="Q100">
-        <v>1081</v>
+        <v>4505</v>
       </c>
       <c r="R100" t="s">
         <v>313</v>
       </c>
       <c r="S100" t="s">
-        <v>334</v>
+        <v>385</v>
       </c>
       <c r="T100" t="s">
         <v>315</v>
@@ -7927,7 +7929,7 @@
     </row>
     <row r="101" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
-        <v>239</v>
+        <v>285</v>
       </c>
       <c r="B101" t="s">
         <v>0</v>
@@ -7942,16 +7944,16 @@
         <v>2</v>
       </c>
       <c r="F101" t="s">
-        <v>24</v>
+        <v>70</v>
       </c>
       <c r="G101">
         <v>536</v>
       </c>
       <c r="H101">
-        <v>113</v>
+        <v>171</v>
       </c>
       <c r="I101" t="s">
-        <v>97</v>
+        <v>120</v>
       </c>
       <c r="J101" t="s">
         <v>88</v>
@@ -7972,16 +7974,16 @@
         <v>2</v>
       </c>
       <c r="P101" t="s">
-        <v>333</v>
+        <v>384</v>
       </c>
       <c r="Q101">
-        <v>1081</v>
+        <v>4505</v>
       </c>
       <c r="R101" t="s">
         <v>313</v>
       </c>
       <c r="S101" t="s">
-        <v>334</v>
+        <v>385</v>
       </c>
       <c r="T101" t="s">
         <v>315</v>
@@ -7989,13 +7991,13 @@
     </row>
     <row r="102" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
-        <v>240</v>
+        <v>216</v>
       </c>
       <c r="B102" t="s">
         <v>0</v>
       </c>
       <c r="C102" t="s">
-        <v>86</v>
+        <v>1</v>
       </c>
       <c r="D102" t="s">
         <v>128</v>
@@ -8004,46 +8006,46 @@
         <v>2</v>
       </c>
       <c r="F102" t="s">
-        <v>26</v>
+        <v>82</v>
       </c>
       <c r="G102">
         <v>536</v>
       </c>
       <c r="H102">
-        <v>121</v>
+        <v>184</v>
       </c>
       <c r="I102" t="s">
-        <v>98</v>
+        <v>83</v>
       </c>
       <c r="J102" t="s">
-        <v>88</v>
+        <v>5</v>
       </c>
       <c r="K102" t="s">
         <v>6</v>
       </c>
       <c r="L102" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="M102">
-        <v>18</v>
+        <v>113</v>
       </c>
       <c r="N102" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="O102">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="P102" t="s">
-        <v>335</v>
+        <v>396</v>
       </c>
       <c r="Q102">
-        <v>1129</v>
+        <v>4507</v>
       </c>
       <c r="R102" t="s">
         <v>313</v>
       </c>
       <c r="S102" t="s">
-        <v>336</v>
+        <v>397</v>
       </c>
       <c r="T102" t="s">
         <v>315</v>
@@ -8051,13 +8053,13 @@
     </row>
     <row r="103" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
-        <v>241</v>
+        <v>217</v>
       </c>
       <c r="B103" t="s">
         <v>0</v>
       </c>
       <c r="C103" t="s">
-        <v>86</v>
+        <v>1</v>
       </c>
       <c r="D103" t="s">
         <v>128</v>
@@ -8066,46 +8068,46 @@
         <v>2</v>
       </c>
       <c r="F103" t="s">
-        <v>26</v>
+        <v>82</v>
       </c>
       <c r="G103">
         <v>536</v>
       </c>
       <c r="H103">
-        <v>121</v>
+        <v>184</v>
       </c>
       <c r="I103" t="s">
-        <v>98</v>
+        <v>83</v>
       </c>
       <c r="J103" t="s">
-        <v>88</v>
+        <v>5</v>
       </c>
       <c r="K103" t="s">
         <v>7</v>
       </c>
       <c r="L103" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="M103">
-        <v>18</v>
+        <v>113</v>
       </c>
       <c r="N103" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="O103">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="P103" t="s">
-        <v>335</v>
+        <v>396</v>
       </c>
       <c r="Q103">
-        <v>1129</v>
+        <v>4507</v>
       </c>
       <c r="R103" t="s">
         <v>313</v>
       </c>
       <c r="S103" t="s">
-        <v>336</v>
+        <v>397</v>
       </c>
       <c r="T103" t="s">
         <v>315</v>
@@ -8113,7 +8115,7 @@
     </row>
     <row r="104" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
-        <v>242</v>
+        <v>296</v>
       </c>
       <c r="B104" t="s">
         <v>0</v>
@@ -8128,16 +8130,16 @@
         <v>2</v>
       </c>
       <c r="F104" t="s">
-        <v>28</v>
+        <v>82</v>
       </c>
       <c r="G104">
         <v>536</v>
       </c>
       <c r="H104">
-        <v>122</v>
+        <v>184</v>
       </c>
       <c r="I104" t="s">
-        <v>99</v>
+        <v>126</v>
       </c>
       <c r="J104" t="s">
         <v>88</v>
@@ -8158,16 +8160,16 @@
         <v>2</v>
       </c>
       <c r="P104" t="s">
-        <v>337</v>
+        <v>396</v>
       </c>
       <c r="Q104">
-        <v>4223</v>
+        <v>4507</v>
       </c>
       <c r="R104" t="s">
         <v>313</v>
       </c>
       <c r="S104" t="s">
-        <v>338</v>
+        <v>397</v>
       </c>
       <c r="T104" t="s">
         <v>315</v>
@@ -8175,7 +8177,7 @@
     </row>
     <row r="105" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
-        <v>243</v>
+        <v>297</v>
       </c>
       <c r="B105" t="s">
         <v>0</v>
@@ -8190,16 +8192,16 @@
         <v>2</v>
       </c>
       <c r="F105" t="s">
-        <v>28</v>
+        <v>82</v>
       </c>
       <c r="G105">
         <v>536</v>
       </c>
       <c r="H105">
-        <v>122</v>
+        <v>184</v>
       </c>
       <c r="I105" t="s">
-        <v>99</v>
+        <v>126</v>
       </c>
       <c r="J105" t="s">
         <v>88</v>
@@ -8220,16 +8222,16 @@
         <v>2</v>
       </c>
       <c r="P105" t="s">
-        <v>337</v>
+        <v>396</v>
       </c>
       <c r="Q105">
-        <v>4223</v>
+        <v>4507</v>
       </c>
       <c r="R105" t="s">
         <v>313</v>
       </c>
       <c r="S105" t="s">
-        <v>338</v>
+        <v>397</v>
       </c>
       <c r="T105" t="s">
         <v>315</v>
@@ -8237,13 +8239,13 @@
     </row>
     <row r="106" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
-        <v>244</v>
+        <v>202</v>
       </c>
       <c r="B106" t="s">
         <v>0</v>
       </c>
       <c r="C106" t="s">
-        <v>86</v>
+        <v>1</v>
       </c>
       <c r="D106" t="s">
         <v>128</v>
@@ -8252,46 +8254,46 @@
         <v>2</v>
       </c>
       <c r="F106" t="s">
-        <v>30</v>
+        <v>68</v>
       </c>
       <c r="G106">
         <v>536</v>
       </c>
       <c r="H106">
-        <v>123</v>
+        <v>170</v>
       </c>
       <c r="I106" t="s">
-        <v>100</v>
+        <v>69</v>
       </c>
       <c r="J106" t="s">
-        <v>88</v>
+        <v>5</v>
       </c>
       <c r="K106" t="s">
         <v>6</v>
       </c>
       <c r="L106" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="M106">
-        <v>18</v>
+        <v>113</v>
       </c>
       <c r="N106" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="O106">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="P106" t="s">
-        <v>339</v>
+        <v>382</v>
       </c>
       <c r="Q106">
-        <v>4229</v>
+        <v>5500</v>
       </c>
       <c r="R106" t="s">
         <v>313</v>
       </c>
       <c r="S106" t="s">
-        <v>340</v>
+        <v>383</v>
       </c>
       <c r="T106" t="s">
         <v>315</v>
@@ -8299,13 +8301,13 @@
     </row>
     <row r="107" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
-        <v>245</v>
+        <v>203</v>
       </c>
       <c r="B107" t="s">
         <v>0</v>
       </c>
       <c r="C107" t="s">
-        <v>86</v>
+        <v>1</v>
       </c>
       <c r="D107" t="s">
         <v>128</v>
@@ -8314,46 +8316,46 @@
         <v>2</v>
       </c>
       <c r="F107" t="s">
-        <v>30</v>
+        <v>68</v>
       </c>
       <c r="G107">
         <v>536</v>
       </c>
       <c r="H107">
-        <v>123</v>
+        <v>170</v>
       </c>
       <c r="I107" t="s">
-        <v>100</v>
+        <v>69</v>
       </c>
       <c r="J107" t="s">
-        <v>88</v>
+        <v>5</v>
       </c>
       <c r="K107" t="s">
         <v>7</v>
       </c>
       <c r="L107" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="M107">
-        <v>18</v>
+        <v>113</v>
       </c>
       <c r="N107" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="O107">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="P107" t="s">
-        <v>339</v>
+        <v>382</v>
       </c>
       <c r="Q107">
-        <v>4229</v>
+        <v>5500</v>
       </c>
       <c r="R107" t="s">
         <v>313</v>
       </c>
       <c r="S107" t="s">
-        <v>340</v>
+        <v>383</v>
       </c>
       <c r="T107" t="s">
         <v>315</v>
@@ -8361,7 +8363,7 @@
     </row>
     <row r="108" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
-        <v>246</v>
+        <v>282</v>
       </c>
       <c r="B108" t="s">
         <v>0</v>
@@ -8376,16 +8378,16 @@
         <v>2</v>
       </c>
       <c r="F108" t="s">
-        <v>32</v>
+        <v>68</v>
       </c>
       <c r="G108">
         <v>536</v>
       </c>
       <c r="H108">
-        <v>124</v>
+        <v>170</v>
       </c>
       <c r="I108" t="s">
-        <v>101</v>
+        <v>119</v>
       </c>
       <c r="J108" t="s">
         <v>88</v>
@@ -8406,16 +8408,16 @@
         <v>2</v>
       </c>
       <c r="P108" t="s">
-        <v>341</v>
+        <v>382</v>
       </c>
       <c r="Q108">
-        <v>1043</v>
+        <v>5500</v>
       </c>
       <c r="R108" t="s">
         <v>313</v>
       </c>
       <c r="S108" t="s">
-        <v>342</v>
+        <v>383</v>
       </c>
       <c r="T108" t="s">
         <v>315</v>
@@ -8423,7 +8425,7 @@
     </row>
     <row r="109" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
-        <v>247</v>
+        <v>283</v>
       </c>
       <c r="B109" t="s">
         <v>0</v>
@@ -8438,16 +8440,16 @@
         <v>2</v>
       </c>
       <c r="F109" t="s">
-        <v>32</v>
+        <v>68</v>
       </c>
       <c r="G109">
         <v>536</v>
       </c>
       <c r="H109">
-        <v>124</v>
+        <v>170</v>
       </c>
       <c r="I109" t="s">
-        <v>101</v>
+        <v>119</v>
       </c>
       <c r="J109" t="s">
         <v>88</v>
@@ -8468,16 +8470,16 @@
         <v>2</v>
       </c>
       <c r="P109" t="s">
-        <v>341</v>
+        <v>382</v>
       </c>
       <c r="Q109">
-        <v>1043</v>
+        <v>5500</v>
       </c>
       <c r="R109" t="s">
         <v>313</v>
       </c>
       <c r="S109" t="s">
-        <v>342</v>
+        <v>383</v>
       </c>
       <c r="T109" t="s">
         <v>315</v>
@@ -8485,13 +8487,13 @@
     </row>
     <row r="110" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
-        <v>248</v>
+        <v>196</v>
       </c>
       <c r="B110" t="s">
         <v>0</v>
       </c>
       <c r="C110" t="s">
-        <v>86</v>
+        <v>1</v>
       </c>
       <c r="D110" t="s">
         <v>128</v>
@@ -8500,46 +8502,46 @@
         <v>2</v>
       </c>
       <c r="F110" t="s">
-        <v>34</v>
+        <v>62</v>
       </c>
       <c r="G110">
         <v>536</v>
       </c>
       <c r="H110">
-        <v>125</v>
+        <v>160</v>
       </c>
       <c r="I110" t="s">
-        <v>102</v>
+        <v>63</v>
       </c>
       <c r="J110" t="s">
-        <v>88</v>
+        <v>5</v>
       </c>
       <c r="K110" t="s">
         <v>6</v>
       </c>
       <c r="L110" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="M110">
-        <v>18</v>
+        <v>113</v>
       </c>
       <c r="N110" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="O110">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="P110" t="s">
-        <v>343</v>
+        <v>375</v>
       </c>
       <c r="Q110">
-        <v>6029</v>
+        <v>5504</v>
       </c>
       <c r="R110" t="s">
         <v>313</v>
       </c>
       <c r="S110" t="s">
-        <v>344</v>
+        <v>376</v>
       </c>
       <c r="T110" t="s">
         <v>315</v>
@@ -8547,13 +8549,13 @@
     </row>
     <row r="111" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
-        <v>249</v>
+        <v>197</v>
       </c>
       <c r="B111" t="s">
         <v>0</v>
       </c>
       <c r="C111" t="s">
-        <v>86</v>
+        <v>1</v>
       </c>
       <c r="D111" t="s">
         <v>128</v>
@@ -8562,46 +8564,46 @@
         <v>2</v>
       </c>
       <c r="F111" t="s">
-        <v>34</v>
+        <v>62</v>
       </c>
       <c r="G111">
         <v>536</v>
       </c>
       <c r="H111">
-        <v>125</v>
+        <v>160</v>
       </c>
       <c r="I111" t="s">
-        <v>102</v>
+        <v>63</v>
       </c>
       <c r="J111" t="s">
-        <v>88</v>
+        <v>5</v>
       </c>
       <c r="K111" t="s">
         <v>7</v>
       </c>
       <c r="L111" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="M111">
-        <v>18</v>
+        <v>113</v>
       </c>
       <c r="N111" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="O111">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="P111" t="s">
-        <v>343</v>
+        <v>375</v>
       </c>
       <c r="Q111">
-        <v>6029</v>
+        <v>5504</v>
       </c>
       <c r="R111" t="s">
         <v>313</v>
       </c>
       <c r="S111" t="s">
-        <v>344</v>
+        <v>376</v>
       </c>
       <c r="T111" t="s">
         <v>315</v>
@@ -8609,7 +8611,7 @@
     </row>
     <row r="112" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
-        <v>250</v>
+        <v>276</v>
       </c>
       <c r="B112" t="s">
         <v>0</v>
@@ -8624,16 +8626,16 @@
         <v>2</v>
       </c>
       <c r="F112" t="s">
-        <v>36</v>
+        <v>62</v>
       </c>
       <c r="G112">
         <v>536</v>
       </c>
       <c r="H112">
-        <v>133</v>
+        <v>160</v>
       </c>
       <c r="I112" t="s">
-        <v>103</v>
+        <v>116</v>
       </c>
       <c r="J112" t="s">
         <v>88</v>
@@ -8654,16 +8656,16 @@
         <v>2</v>
       </c>
       <c r="P112" t="s">
-        <v>345</v>
+        <v>375</v>
       </c>
       <c r="Q112">
-        <v>1130</v>
+        <v>5504</v>
       </c>
       <c r="R112" t="s">
         <v>313</v>
       </c>
       <c r="S112" t="s">
-        <v>346</v>
+        <v>376</v>
       </c>
       <c r="T112" t="s">
         <v>315</v>
@@ -8671,7 +8673,7 @@
     </row>
     <row r="113" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
-        <v>251</v>
+        <v>277</v>
       </c>
       <c r="B113" t="s">
         <v>0</v>
@@ -8686,16 +8688,16 @@
         <v>2</v>
       </c>
       <c r="F113" t="s">
-        <v>36</v>
+        <v>62</v>
       </c>
       <c r="G113">
         <v>536</v>
       </c>
       <c r="H113">
-        <v>133</v>
+        <v>160</v>
       </c>
       <c r="I113" t="s">
-        <v>103</v>
+        <v>116</v>
       </c>
       <c r="J113" t="s">
         <v>88</v>
@@ -8716,16 +8718,16 @@
         <v>2</v>
       </c>
       <c r="P113" t="s">
-        <v>345</v>
+        <v>375</v>
       </c>
       <c r="Q113">
-        <v>1130</v>
+        <v>5504</v>
       </c>
       <c r="R113" t="s">
         <v>313</v>
       </c>
       <c r="S113" t="s">
-        <v>346</v>
+        <v>376</v>
       </c>
       <c r="T113" t="s">
         <v>315</v>
@@ -8733,13 +8735,13 @@
     </row>
     <row r="114" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
-        <v>252</v>
+        <v>150</v>
       </c>
       <c r="B114" t="s">
         <v>0</v>
       </c>
       <c r="C114" t="s">
-        <v>86</v>
+        <v>1</v>
       </c>
       <c r="D114" t="s">
         <v>128</v>
@@ -8748,46 +8750,46 @@
         <v>2</v>
       </c>
       <c r="F114" t="s">
-        <v>38</v>
+        <v>16</v>
       </c>
       <c r="G114">
         <v>536</v>
       </c>
       <c r="H114">
-        <v>134</v>
+        <v>109</v>
       </c>
       <c r="I114" t="s">
-        <v>104</v>
+        <v>17</v>
       </c>
       <c r="J114" t="s">
-        <v>88</v>
+        <v>5</v>
       </c>
       <c r="K114" t="s">
         <v>6</v>
       </c>
       <c r="L114" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="M114">
-        <v>18</v>
+        <v>113</v>
       </c>
       <c r="N114" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="O114">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="P114" t="s">
-        <v>347</v>
-      </c>
-      <c r="Q114" t="s">
-        <v>348</v>
+        <v>325</v>
+      </c>
+      <c r="Q114">
+        <v>5506</v>
       </c>
       <c r="R114" t="s">
         <v>313</v>
       </c>
       <c r="S114" t="s">
-        <v>349</v>
+        <v>326</v>
       </c>
       <c r="T114" t="s">
         <v>315</v>
@@ -8795,13 +8797,13 @@
     </row>
     <row r="115" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
-        <v>253</v>
+        <v>151</v>
       </c>
       <c r="B115" t="s">
         <v>0</v>
       </c>
       <c r="C115" t="s">
-        <v>86</v>
+        <v>1</v>
       </c>
       <c r="D115" t="s">
         <v>128</v>
@@ -8810,46 +8812,46 @@
         <v>2</v>
       </c>
       <c r="F115" t="s">
-        <v>38</v>
+        <v>16</v>
       </c>
       <c r="G115">
         <v>536</v>
       </c>
       <c r="H115">
-        <v>134</v>
+        <v>109</v>
       </c>
       <c r="I115" t="s">
-        <v>104</v>
+        <v>17</v>
       </c>
       <c r="J115" t="s">
-        <v>88</v>
+        <v>5</v>
       </c>
       <c r="K115" t="s">
         <v>7</v>
       </c>
       <c r="L115" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="M115">
-        <v>18</v>
+        <v>113</v>
       </c>
       <c r="N115" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="O115">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="P115" t="s">
-        <v>347</v>
-      </c>
-      <c r="Q115" t="s">
-        <v>348</v>
+        <v>325</v>
+      </c>
+      <c r="Q115">
+        <v>5506</v>
       </c>
       <c r="R115" t="s">
         <v>313</v>
       </c>
       <c r="S115" t="s">
-        <v>349</v>
+        <v>326</v>
       </c>
       <c r="T115" t="s">
         <v>315</v>
@@ -8857,7 +8859,7 @@
     </row>
     <row r="116" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
-        <v>254</v>
+        <v>230</v>
       </c>
       <c r="B116" t="s">
         <v>0</v>
@@ -8872,16 +8874,16 @@
         <v>2</v>
       </c>
       <c r="F116" t="s">
-        <v>40</v>
+        <v>16</v>
       </c>
       <c r="G116">
         <v>536</v>
       </c>
       <c r="H116">
-        <v>135</v>
+        <v>109</v>
       </c>
       <c r="I116" t="s">
-        <v>105</v>
+        <v>93</v>
       </c>
       <c r="J116" t="s">
         <v>88</v>
@@ -8902,16 +8904,16 @@
         <v>2</v>
       </c>
       <c r="P116" t="s">
-        <v>350</v>
+        <v>325</v>
       </c>
       <c r="Q116">
-        <v>1116</v>
+        <v>5506</v>
       </c>
       <c r="R116" t="s">
         <v>313</v>
       </c>
       <c r="S116" t="s">
-        <v>351</v>
+        <v>326</v>
       </c>
       <c r="T116" t="s">
         <v>315</v>
@@ -8919,7 +8921,7 @@
     </row>
     <row r="117" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
-        <v>255</v>
+        <v>231</v>
       </c>
       <c r="B117" t="s">
         <v>0</v>
@@ -8934,16 +8936,16 @@
         <v>2</v>
       </c>
       <c r="F117" t="s">
-        <v>40</v>
+        <v>16</v>
       </c>
       <c r="G117">
         <v>536</v>
       </c>
       <c r="H117">
-        <v>135</v>
+        <v>109</v>
       </c>
       <c r="I117" t="s">
-        <v>105</v>
+        <v>93</v>
       </c>
       <c r="J117" t="s">
         <v>88</v>
@@ -8964,16 +8966,16 @@
         <v>2</v>
       </c>
       <c r="P117" t="s">
-        <v>350</v>
+        <v>325</v>
       </c>
       <c r="Q117">
-        <v>1116</v>
+        <v>5506</v>
       </c>
       <c r="R117" t="s">
         <v>313</v>
       </c>
       <c r="S117" t="s">
-        <v>351</v>
+        <v>326</v>
       </c>
       <c r="T117" t="s">
         <v>315</v>
@@ -8981,13 +8983,13 @@
     </row>
     <row r="118" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
-        <v>256</v>
+        <v>218</v>
       </c>
       <c r="B118" t="s">
         <v>0</v>
       </c>
       <c r="C118" t="s">
-        <v>86</v>
+        <v>1</v>
       </c>
       <c r="D118" t="s">
         <v>128</v>
@@ -8996,46 +8998,46 @@
         <v>2</v>
       </c>
       <c r="F118" t="s">
-        <v>42</v>
+        <v>84</v>
       </c>
       <c r="G118">
         <v>536</v>
       </c>
       <c r="H118">
-        <v>136</v>
+        <v>185</v>
       </c>
       <c r="I118" t="s">
-        <v>106</v>
+        <v>85</v>
       </c>
       <c r="J118" t="s">
-        <v>88</v>
+        <v>5</v>
       </c>
       <c r="K118" t="s">
         <v>6</v>
       </c>
       <c r="L118" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="M118">
-        <v>18</v>
+        <v>113</v>
       </c>
       <c r="N118" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="O118">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="P118" t="s">
-        <v>352</v>
+        <v>398</v>
       </c>
       <c r="Q118">
-        <v>6012</v>
+        <v>5509</v>
       </c>
       <c r="R118" t="s">
         <v>313</v>
       </c>
       <c r="S118" t="s">
-        <v>353</v>
+        <v>399</v>
       </c>
       <c r="T118" t="s">
         <v>315</v>
@@ -9043,13 +9045,13 @@
     </row>
     <row r="119" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
-        <v>257</v>
+        <v>219</v>
       </c>
       <c r="B119" t="s">
         <v>0</v>
       </c>
       <c r="C119" t="s">
-        <v>86</v>
+        <v>1</v>
       </c>
       <c r="D119" t="s">
         <v>128</v>
@@ -9058,46 +9060,46 @@
         <v>2</v>
       </c>
       <c r="F119" t="s">
-        <v>42</v>
+        <v>84</v>
       </c>
       <c r="G119">
         <v>536</v>
       </c>
       <c r="H119">
-        <v>136</v>
+        <v>185</v>
       </c>
       <c r="I119" t="s">
-        <v>106</v>
+        <v>85</v>
       </c>
       <c r="J119" t="s">
-        <v>88</v>
+        <v>5</v>
       </c>
       <c r="K119" t="s">
         <v>7</v>
       </c>
       <c r="L119" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="M119">
-        <v>18</v>
+        <v>113</v>
       </c>
       <c r="N119" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="O119">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="P119" t="s">
-        <v>352</v>
+        <v>398</v>
       </c>
       <c r="Q119">
-        <v>6012</v>
+        <v>5509</v>
       </c>
       <c r="R119" t="s">
         <v>313</v>
       </c>
       <c r="S119" t="s">
-        <v>353</v>
+        <v>399</v>
       </c>
       <c r="T119" t="s">
         <v>315</v>
@@ -9105,7 +9107,7 @@
     </row>
     <row r="120" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
-        <v>258</v>
+        <v>298</v>
       </c>
       <c r="B120" t="s">
         <v>0</v>
@@ -9120,16 +9122,16 @@
         <v>2</v>
       </c>
       <c r="F120" t="s">
-        <v>44</v>
+        <v>84</v>
       </c>
       <c r="G120">
         <v>536</v>
       </c>
       <c r="H120">
-        <v>137</v>
+        <v>185</v>
       </c>
       <c r="I120" t="s">
-        <v>107</v>
+        <v>127</v>
       </c>
       <c r="J120" t="s">
         <v>88</v>
@@ -9150,16 +9152,16 @@
         <v>2</v>
       </c>
       <c r="P120" t="s">
-        <v>354</v>
-      </c>
-      <c r="Q120" t="s">
-        <v>355</v>
+        <v>398</v>
+      </c>
+      <c r="Q120">
+        <v>5509</v>
       </c>
       <c r="R120" t="s">
         <v>313</v>
       </c>
       <c r="S120" t="s">
-        <v>356</v>
+        <v>399</v>
       </c>
       <c r="T120" t="s">
         <v>315</v>
@@ -9167,7 +9169,7 @@
     </row>
     <row r="121" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
-        <v>259</v>
+        <v>299</v>
       </c>
       <c r="B121" t="s">
         <v>0</v>
@@ -9182,16 +9184,16 @@
         <v>2</v>
       </c>
       <c r="F121" t="s">
-        <v>44</v>
+        <v>84</v>
       </c>
       <c r="G121">
         <v>536</v>
       </c>
       <c r="H121">
-        <v>137</v>
+        <v>185</v>
       </c>
       <c r="I121" t="s">
-        <v>107</v>
+        <v>127</v>
       </c>
       <c r="J121" t="s">
         <v>88</v>
@@ -9212,16 +9214,16 @@
         <v>2</v>
       </c>
       <c r="P121" t="s">
-        <v>354</v>
-      </c>
-      <c r="Q121" t="s">
-        <v>355</v>
+        <v>398</v>
+      </c>
+      <c r="Q121">
+        <v>5509</v>
       </c>
       <c r="R121" t="s">
         <v>313</v>
       </c>
       <c r="S121" t="s">
-        <v>356</v>
+        <v>399</v>
       </c>
       <c r="T121" t="s">
         <v>315</v>
@@ -9229,13 +9231,13 @@
     </row>
     <row r="122" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
-        <v>260</v>
+        <v>176</v>
       </c>
       <c r="B122" t="s">
         <v>0</v>
       </c>
       <c r="C122" t="s">
-        <v>86</v>
+        <v>1</v>
       </c>
       <c r="D122" t="s">
         <v>128</v>
@@ -9244,46 +9246,46 @@
         <v>2</v>
       </c>
       <c r="F122" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="G122">
         <v>536</v>
       </c>
       <c r="H122">
-        <v>145</v>
+        <v>136</v>
       </c>
       <c r="I122" t="s">
-        <v>108</v>
+        <v>43</v>
       </c>
       <c r="J122" t="s">
-        <v>88</v>
+        <v>5</v>
       </c>
       <c r="K122" t="s">
         <v>6</v>
       </c>
       <c r="L122" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="M122">
-        <v>18</v>
+        <v>113</v>
       </c>
       <c r="N122" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="O122">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="P122" t="s">
-        <v>357</v>
-      </c>
-      <c r="Q122" t="s">
-        <v>358</v>
+        <v>352</v>
+      </c>
+      <c r="Q122">
+        <v>6012</v>
       </c>
       <c r="R122" t="s">
         <v>313</v>
       </c>
       <c r="S122" t="s">
-        <v>359</v>
+        <v>353</v>
       </c>
       <c r="T122" t="s">
         <v>315</v>
@@ -9291,13 +9293,13 @@
     </row>
     <row r="123" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
-        <v>261</v>
+        <v>177</v>
       </c>
       <c r="B123" t="s">
         <v>0</v>
       </c>
       <c r="C123" t="s">
-        <v>86</v>
+        <v>1</v>
       </c>
       <c r="D123" t="s">
         <v>128</v>
@@ -9306,46 +9308,46 @@
         <v>2</v>
       </c>
       <c r="F123" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="G123">
         <v>536</v>
       </c>
       <c r="H123">
-        <v>145</v>
+        <v>136</v>
       </c>
       <c r="I123" t="s">
-        <v>108</v>
+        <v>43</v>
       </c>
       <c r="J123" t="s">
-        <v>88</v>
+        <v>5</v>
       </c>
       <c r="K123" t="s">
         <v>7</v>
       </c>
       <c r="L123" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="M123">
-        <v>18</v>
+        <v>113</v>
       </c>
       <c r="N123" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="O123">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="P123" t="s">
-        <v>357</v>
-      </c>
-      <c r="Q123" t="s">
-        <v>358</v>
+        <v>352</v>
+      </c>
+      <c r="Q123">
+        <v>6012</v>
       </c>
       <c r="R123" t="s">
         <v>313</v>
       </c>
       <c r="S123" t="s">
-        <v>359</v>
+        <v>353</v>
       </c>
       <c r="T123" t="s">
         <v>315</v>
@@ -9353,7 +9355,7 @@
     </row>
     <row r="124" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
-        <v>262</v>
+        <v>256</v>
       </c>
       <c r="B124" t="s">
         <v>0</v>
@@ -9368,16 +9370,16 @@
         <v>2</v>
       </c>
       <c r="F124" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="G124">
         <v>536</v>
       </c>
       <c r="H124">
-        <v>146</v>
+        <v>136</v>
       </c>
       <c r="I124" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="J124" t="s">
         <v>88</v>
@@ -9398,16 +9400,16 @@
         <v>2</v>
       </c>
       <c r="P124" t="s">
-        <v>360</v>
+        <v>352</v>
       </c>
       <c r="Q124">
-        <v>4224</v>
+        <v>6012</v>
       </c>
       <c r="R124" t="s">
         <v>313</v>
       </c>
       <c r="S124" t="s">
-        <v>361</v>
+        <v>353</v>
       </c>
       <c r="T124" t="s">
         <v>315</v>
@@ -9415,7 +9417,7 @@
     </row>
     <row r="125" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="B125" t="s">
         <v>0</v>
@@ -9430,16 +9432,16 @@
         <v>2</v>
       </c>
       <c r="F125" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="G125">
         <v>536</v>
       </c>
       <c r="H125">
-        <v>146</v>
+        <v>136</v>
       </c>
       <c r="I125" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="J125" t="s">
         <v>88</v>
@@ -9460,16 +9462,16 @@
         <v>2</v>
       </c>
       <c r="P125" t="s">
-        <v>360</v>
+        <v>352</v>
       </c>
       <c r="Q125">
-        <v>4224</v>
+        <v>6012</v>
       </c>
       <c r="R125" t="s">
         <v>313</v>
       </c>
       <c r="S125" t="s">
-        <v>361</v>
+        <v>353</v>
       </c>
       <c r="T125" t="s">
         <v>315</v>
@@ -9477,13 +9479,13 @@
     </row>
     <row r="126" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
-        <v>264</v>
+        <v>144</v>
       </c>
       <c r="B126" t="s">
         <v>0</v>
       </c>
       <c r="C126" t="s">
-        <v>86</v>
+        <v>1</v>
       </c>
       <c r="D126" t="s">
         <v>128</v>
@@ -9492,46 +9494,46 @@
         <v>2</v>
       </c>
       <c r="F126" t="s">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="G126">
         <v>536</v>
       </c>
       <c r="H126">
-        <v>147</v>
+        <v>99</v>
       </c>
       <c r="I126" t="s">
-        <v>110</v>
+        <v>11</v>
       </c>
       <c r="J126" t="s">
-        <v>88</v>
+        <v>5</v>
       </c>
       <c r="K126" t="s">
         <v>6</v>
       </c>
       <c r="L126" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="M126">
-        <v>18</v>
+        <v>113</v>
       </c>
       <c r="N126" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="O126">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="P126" t="s">
-        <v>362</v>
+        <v>318</v>
       </c>
       <c r="Q126">
-        <v>4110</v>
+        <v>6015</v>
       </c>
       <c r="R126" t="s">
         <v>313</v>
       </c>
       <c r="S126" t="s">
-        <v>363</v>
+        <v>319</v>
       </c>
       <c r="T126" t="s">
         <v>315</v>
@@ -9539,13 +9541,13 @@
     </row>
     <row r="127" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
-        <v>265</v>
+        <v>145</v>
       </c>
       <c r="B127" t="s">
         <v>0</v>
       </c>
       <c r="C127" t="s">
-        <v>86</v>
+        <v>1</v>
       </c>
       <c r="D127" t="s">
         <v>128</v>
@@ -9554,46 +9556,46 @@
         <v>2</v>
       </c>
       <c r="F127" t="s">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="G127">
         <v>536</v>
       </c>
       <c r="H127">
-        <v>147</v>
+        <v>99</v>
       </c>
       <c r="I127" t="s">
-        <v>110</v>
+        <v>11</v>
       </c>
       <c r="J127" t="s">
-        <v>88</v>
+        <v>5</v>
       </c>
       <c r="K127" t="s">
         <v>7</v>
       </c>
       <c r="L127" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="M127">
-        <v>18</v>
+        <v>113</v>
       </c>
       <c r="N127" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="O127">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="P127" t="s">
-        <v>362</v>
+        <v>318</v>
       </c>
       <c r="Q127">
-        <v>4110</v>
+        <v>6015</v>
       </c>
       <c r="R127" t="s">
         <v>313</v>
       </c>
       <c r="S127" t="s">
-        <v>363</v>
+        <v>319</v>
       </c>
       <c r="T127" t="s">
         <v>315</v>
@@ -9601,7 +9603,7 @@
     </row>
     <row r="128" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
-        <v>266</v>
+        <v>224</v>
       </c>
       <c r="B128" t="s">
         <v>0</v>
@@ -9616,16 +9618,16 @@
         <v>2</v>
       </c>
       <c r="F128" t="s">
-        <v>52</v>
+        <v>10</v>
       </c>
       <c r="G128">
         <v>536</v>
       </c>
       <c r="H128">
-        <v>148</v>
+        <v>99</v>
       </c>
       <c r="I128" t="s">
-        <v>111</v>
+        <v>90</v>
       </c>
       <c r="J128" t="s">
         <v>88</v>
@@ -9646,16 +9648,16 @@
         <v>2</v>
       </c>
       <c r="P128" t="s">
-        <v>364</v>
+        <v>318</v>
       </c>
       <c r="Q128">
-        <v>4207</v>
+        <v>6015</v>
       </c>
       <c r="R128" t="s">
         <v>313</v>
       </c>
       <c r="S128" t="s">
-        <v>365</v>
+        <v>319</v>
       </c>
       <c r="T128" t="s">
         <v>315</v>
@@ -9663,7 +9665,7 @@
     </row>
     <row r="129" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
-        <v>267</v>
+        <v>225</v>
       </c>
       <c r="B129" t="s">
         <v>0</v>
@@ -9678,16 +9680,16 @@
         <v>2</v>
       </c>
       <c r="F129" t="s">
-        <v>52</v>
+        <v>10</v>
       </c>
       <c r="G129">
         <v>536</v>
       </c>
       <c r="H129">
-        <v>148</v>
+        <v>99</v>
       </c>
       <c r="I129" t="s">
-        <v>111</v>
+        <v>90</v>
       </c>
       <c r="J129" t="s">
         <v>88</v>
@@ -9708,16 +9710,16 @@
         <v>2</v>
       </c>
       <c r="P129" t="s">
-        <v>364</v>
+        <v>318</v>
       </c>
       <c r="Q129">
-        <v>4207</v>
+        <v>6015</v>
       </c>
       <c r="R129" t="s">
         <v>313</v>
       </c>
       <c r="S129" t="s">
-        <v>365</v>
+        <v>319</v>
       </c>
       <c r="T129" t="s">
         <v>315</v>
@@ -9725,13 +9727,13 @@
     </row>
     <row r="130" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
-        <v>268</v>
+        <v>152</v>
       </c>
       <c r="B130" t="s">
         <v>0</v>
       </c>
       <c r="C130" t="s">
-        <v>86</v>
+        <v>1</v>
       </c>
       <c r="D130" t="s">
         <v>128</v>
@@ -9740,46 +9742,46 @@
         <v>2</v>
       </c>
       <c r="F130" t="s">
-        <v>54</v>
+        <v>18</v>
       </c>
       <c r="G130">
         <v>536</v>
       </c>
       <c r="H130">
-        <v>149</v>
+        <v>110</v>
       </c>
       <c r="I130" t="s">
-        <v>112</v>
+        <v>19</v>
       </c>
       <c r="J130" t="s">
-        <v>88</v>
+        <v>5</v>
       </c>
       <c r="K130" t="s">
         <v>6</v>
       </c>
       <c r="L130" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="M130">
-        <v>18</v>
+        <v>113</v>
       </c>
       <c r="N130" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="O130">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="P130" t="s">
-        <v>366</v>
+        <v>327</v>
       </c>
       <c r="Q130">
-        <v>2003</v>
+        <v>6024</v>
       </c>
       <c r="R130" t="s">
         <v>313</v>
       </c>
       <c r="S130" t="s">
-        <v>367</v>
+        <v>328</v>
       </c>
       <c r="T130" t="s">
         <v>315</v>
@@ -9787,13 +9789,13 @@
     </row>
     <row r="131" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
-        <v>269</v>
+        <v>153</v>
       </c>
       <c r="B131" t="s">
         <v>0</v>
       </c>
       <c r="C131" t="s">
-        <v>86</v>
+        <v>1</v>
       </c>
       <c r="D131" t="s">
         <v>128</v>
@@ -9802,46 +9804,46 @@
         <v>2</v>
       </c>
       <c r="F131" t="s">
-        <v>54</v>
+        <v>18</v>
       </c>
       <c r="G131">
         <v>536</v>
       </c>
       <c r="H131">
-        <v>149</v>
+        <v>110</v>
       </c>
       <c r="I131" t="s">
-        <v>112</v>
+        <v>19</v>
       </c>
       <c r="J131" t="s">
-        <v>88</v>
+        <v>5</v>
       </c>
       <c r="K131" t="s">
         <v>7</v>
       </c>
       <c r="L131" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="M131">
-        <v>18</v>
+        <v>113</v>
       </c>
       <c r="N131" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="O131">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="P131" t="s">
-        <v>366</v>
+        <v>327</v>
       </c>
       <c r="Q131">
-        <v>2003</v>
+        <v>6024</v>
       </c>
       <c r="R131" t="s">
         <v>313</v>
       </c>
       <c r="S131" t="s">
-        <v>367</v>
+        <v>328</v>
       </c>
       <c r="T131" t="s">
         <v>315</v>
@@ -9849,7 +9851,7 @@
     </row>
     <row r="132" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
-        <v>270</v>
+        <v>232</v>
       </c>
       <c r="B132" t="s">
         <v>0</v>
@@ -9864,16 +9866,16 @@
         <v>2</v>
       </c>
       <c r="F132" t="s">
-        <v>56</v>
+        <v>18</v>
       </c>
       <c r="G132">
         <v>536</v>
       </c>
       <c r="H132">
-        <v>157</v>
+        <v>110</v>
       </c>
       <c r="I132" t="s">
-        <v>113</v>
+        <v>94</v>
       </c>
       <c r="J132" t="s">
         <v>88</v>
@@ -9894,16 +9896,16 @@
         <v>2</v>
       </c>
       <c r="P132" t="s">
-        <v>368</v>
+        <v>327</v>
       </c>
       <c r="Q132">
-        <v>4246</v>
+        <v>6024</v>
       </c>
       <c r="R132" t="s">
         <v>313</v>
       </c>
       <c r="S132" t="s">
-        <v>369</v>
+        <v>328</v>
       </c>
       <c r="T132" t="s">
         <v>315</v>
@@ -9911,7 +9913,7 @@
     </row>
     <row r="133" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
-        <v>271</v>
+        <v>233</v>
       </c>
       <c r="B133" t="s">
         <v>0</v>
@@ -9926,16 +9928,16 @@
         <v>2</v>
       </c>
       <c r="F133" t="s">
-        <v>56</v>
+        <v>18</v>
       </c>
       <c r="G133">
         <v>536</v>
       </c>
       <c r="H133">
-        <v>157</v>
+        <v>110</v>
       </c>
       <c r="I133" t="s">
-        <v>113</v>
+        <v>94</v>
       </c>
       <c r="J133" t="s">
         <v>88</v>
@@ -9956,16 +9958,16 @@
         <v>2</v>
       </c>
       <c r="P133" t="s">
-        <v>368</v>
+        <v>327</v>
       </c>
       <c r="Q133">
-        <v>4246</v>
+        <v>6024</v>
       </c>
       <c r="R133" t="s">
         <v>313</v>
       </c>
       <c r="S133" t="s">
-        <v>369</v>
+        <v>328</v>
       </c>
       <c r="T133" t="s">
         <v>315</v>
@@ -9973,13 +9975,13 @@
     </row>
     <row r="134" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
-        <v>272</v>
+        <v>168</v>
       </c>
       <c r="B134" t="s">
         <v>0</v>
       </c>
       <c r="C134" t="s">
-        <v>86</v>
+        <v>1</v>
       </c>
       <c r="D134" t="s">
         <v>128</v>
@@ -9988,46 +9990,46 @@
         <v>2</v>
       </c>
       <c r="F134" t="s">
-        <v>58</v>
+        <v>34</v>
       </c>
       <c r="G134">
         <v>536</v>
       </c>
       <c r="H134">
-        <v>158</v>
+        <v>125</v>
       </c>
       <c r="I134" t="s">
-        <v>114</v>
+        <v>35</v>
       </c>
       <c r="J134" t="s">
-        <v>88</v>
+        <v>5</v>
       </c>
       <c r="K134" t="s">
         <v>6</v>
       </c>
       <c r="L134" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="M134">
-        <v>18</v>
+        <v>113</v>
       </c>
       <c r="N134" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="O134">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="P134" t="s">
-        <v>370</v>
-      </c>
-      <c r="Q134" t="s">
-        <v>371</v>
+        <v>343</v>
+      </c>
+      <c r="Q134">
+        <v>6029</v>
       </c>
       <c r="R134" t="s">
         <v>313</v>
       </c>
       <c r="S134" t="s">
-        <v>372</v>
+        <v>344</v>
       </c>
       <c r="T134" t="s">
         <v>315</v>
@@ -10035,13 +10037,13 @@
     </row>
     <row r="135" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
-        <v>273</v>
+        <v>169</v>
       </c>
       <c r="B135" t="s">
         <v>0</v>
       </c>
       <c r="C135" t="s">
-        <v>86</v>
+        <v>1</v>
       </c>
       <c r="D135" t="s">
         <v>128</v>
@@ -10050,46 +10052,46 @@
         <v>2</v>
       </c>
       <c r="F135" t="s">
-        <v>58</v>
+        <v>34</v>
       </c>
       <c r="G135">
         <v>536</v>
       </c>
       <c r="H135">
-        <v>158</v>
+        <v>125</v>
       </c>
       <c r="I135" t="s">
-        <v>114</v>
+        <v>35</v>
       </c>
       <c r="J135" t="s">
-        <v>88</v>
+        <v>5</v>
       </c>
       <c r="K135" t="s">
         <v>7</v>
       </c>
       <c r="L135" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="M135">
-        <v>18</v>
+        <v>113</v>
       </c>
       <c r="N135" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="O135">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="P135" t="s">
-        <v>370</v>
-      </c>
-      <c r="Q135" t="s">
-        <v>371</v>
+        <v>343</v>
+      </c>
+      <c r="Q135">
+        <v>6029</v>
       </c>
       <c r="R135" t="s">
         <v>313</v>
       </c>
       <c r="S135" t="s">
-        <v>372</v>
+        <v>344</v>
       </c>
       <c r="T135" t="s">
         <v>315</v>
@@ -10097,7 +10099,7 @@
     </row>
     <row r="136" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
-        <v>274</v>
+        <v>248</v>
       </c>
       <c r="B136" t="s">
         <v>0</v>
@@ -10112,16 +10114,16 @@
         <v>2</v>
       </c>
       <c r="F136" t="s">
-        <v>60</v>
+        <v>34</v>
       </c>
       <c r="G136">
         <v>536</v>
       </c>
       <c r="H136">
-        <v>159</v>
+        <v>125</v>
       </c>
       <c r="I136" t="s">
-        <v>115</v>
+        <v>102</v>
       </c>
       <c r="J136" t="s">
         <v>88</v>
@@ -10142,16 +10144,16 @@
         <v>2</v>
       </c>
       <c r="P136" t="s">
-        <v>373</v>
+        <v>343</v>
       </c>
       <c r="Q136">
-        <v>1051</v>
+        <v>6029</v>
       </c>
       <c r="R136" t="s">
         <v>313</v>
       </c>
       <c r="S136" t="s">
-        <v>374</v>
+        <v>344</v>
       </c>
       <c r="T136" t="s">
         <v>315</v>
@@ -10159,7 +10161,7 @@
     </row>
     <row r="137" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
-        <v>275</v>
+        <v>249</v>
       </c>
       <c r="B137" t="s">
         <v>0</v>
@@ -10174,16 +10176,16 @@
         <v>2</v>
       </c>
       <c r="F137" t="s">
-        <v>60</v>
+        <v>34</v>
       </c>
       <c r="G137">
         <v>536</v>
       </c>
       <c r="H137">
-        <v>159</v>
+        <v>125</v>
       </c>
       <c r="I137" t="s">
-        <v>115</v>
+        <v>102</v>
       </c>
       <c r="J137" t="s">
         <v>88</v>
@@ -10204,16 +10206,16 @@
         <v>2</v>
       </c>
       <c r="P137" t="s">
-        <v>373</v>
+        <v>343</v>
       </c>
       <c r="Q137">
-        <v>1051</v>
+        <v>6029</v>
       </c>
       <c r="R137" t="s">
         <v>313</v>
       </c>
       <c r="S137" t="s">
-        <v>374</v>
+        <v>344</v>
       </c>
       <c r="T137" t="s">
         <v>315</v>
@@ -10221,13 +10223,13 @@
     </row>
     <row r="138" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
-        <v>276</v>
+        <v>192</v>
       </c>
       <c r="B138" t="s">
         <v>0</v>
       </c>
       <c r="C138" t="s">
-        <v>86</v>
+        <v>1</v>
       </c>
       <c r="D138" t="s">
         <v>128</v>
@@ -10236,46 +10238,46 @@
         <v>2</v>
       </c>
       <c r="F138" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="G138">
         <v>536</v>
       </c>
       <c r="H138">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="I138" t="s">
-        <v>116</v>
+        <v>59</v>
       </c>
       <c r="J138" t="s">
-        <v>88</v>
+        <v>5</v>
       </c>
       <c r="K138" t="s">
         <v>6</v>
       </c>
       <c r="L138" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="M138">
-        <v>18</v>
+        <v>113</v>
       </c>
       <c r="N138" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="O138">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="P138" t="s">
-        <v>375</v>
-      </c>
-      <c r="Q138">
-        <v>5504</v>
+        <v>370</v>
+      </c>
+      <c r="Q138" t="s">
+        <v>371</v>
       </c>
       <c r="R138" t="s">
         <v>313</v>
       </c>
       <c r="S138" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="T138" t="s">
         <v>315</v>
@@ -10283,13 +10285,13 @@
     </row>
     <row r="139" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
-        <v>277</v>
+        <v>193</v>
       </c>
       <c r="B139" t="s">
         <v>0</v>
       </c>
       <c r="C139" t="s">
-        <v>86</v>
+        <v>1</v>
       </c>
       <c r="D139" t="s">
         <v>128</v>
@@ -10298,46 +10300,46 @@
         <v>2</v>
       </c>
       <c r="F139" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="G139">
         <v>536</v>
       </c>
       <c r="H139">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="I139" t="s">
-        <v>116</v>
+        <v>59</v>
       </c>
       <c r="J139" t="s">
-        <v>88</v>
+        <v>5</v>
       </c>
       <c r="K139" t="s">
         <v>7</v>
       </c>
       <c r="L139" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="M139">
-        <v>18</v>
+        <v>113</v>
       </c>
       <c r="N139" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="O139">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="P139" t="s">
-        <v>375</v>
-      </c>
-      <c r="Q139">
-        <v>5504</v>
+        <v>370</v>
+      </c>
+      <c r="Q139" t="s">
+        <v>371</v>
       </c>
       <c r="R139" t="s">
         <v>313</v>
       </c>
       <c r="S139" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="T139" t="s">
         <v>315</v>
@@ -10345,7 +10347,7 @@
     </row>
     <row r="140" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
       <c r="B140" t="s">
         <v>0</v>
@@ -10360,16 +10362,16 @@
         <v>2</v>
       </c>
       <c r="F140" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="G140">
         <v>536</v>
       </c>
       <c r="H140">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="I140" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="J140" t="s">
         <v>88</v>
@@ -10390,16 +10392,16 @@
         <v>2</v>
       </c>
       <c r="P140" t="s">
-        <v>377</v>
-      </c>
-      <c r="Q140">
-        <v>1059</v>
+        <v>370</v>
+      </c>
+      <c r="Q140" t="s">
+        <v>371</v>
       </c>
       <c r="R140" t="s">
         <v>313</v>
       </c>
       <c r="S140" t="s">
-        <v>378</v>
+        <v>372</v>
       </c>
       <c r="T140" t="s">
         <v>315</v>
@@ -10407,7 +10409,7 @@
     </row>
     <row r="141" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
       <c r="B141" t="s">
         <v>0</v>
@@ -10422,16 +10424,16 @@
         <v>2</v>
       </c>
       <c r="F141" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="G141">
         <v>536</v>
       </c>
       <c r="H141">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="I141" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="J141" t="s">
         <v>88</v>
@@ -10452,16 +10454,16 @@
         <v>2</v>
       </c>
       <c r="P141" t="s">
-        <v>377</v>
-      </c>
-      <c r="Q141">
-        <v>1059</v>
+        <v>370</v>
+      </c>
+      <c r="Q141" t="s">
+        <v>371</v>
       </c>
       <c r="R141" t="s">
         <v>313</v>
       </c>
       <c r="S141" t="s">
-        <v>378</v>
+        <v>372</v>
       </c>
       <c r="T141" t="s">
         <v>315</v>
@@ -10469,13 +10471,13 @@
     </row>
     <row r="142" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
-        <v>280</v>
+        <v>172</v>
       </c>
       <c r="B142" t="s">
         <v>0</v>
       </c>
       <c r="C142" t="s">
-        <v>86</v>
+        <v>1</v>
       </c>
       <c r="D142" t="s">
         <v>128</v>
@@ -10484,46 +10486,46 @@
         <v>2</v>
       </c>
       <c r="F142" t="s">
-        <v>66</v>
+        <v>38</v>
       </c>
       <c r="G142">
         <v>536</v>
       </c>
       <c r="H142">
-        <v>169</v>
+        <v>134</v>
       </c>
       <c r="I142" t="s">
-        <v>118</v>
+        <v>39</v>
       </c>
       <c r="J142" t="s">
-        <v>88</v>
+        <v>5</v>
       </c>
       <c r="K142" t="s">
         <v>6</v>
       </c>
       <c r="L142" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="M142">
-        <v>18</v>
+        <v>113</v>
       </c>
       <c r="N142" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="O142">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="P142" t="s">
-        <v>379</v>
+        <v>347</v>
       </c>
       <c r="Q142" t="s">
-        <v>380</v>
+        <v>348</v>
       </c>
       <c r="R142" t="s">
         <v>313</v>
       </c>
       <c r="S142" t="s">
-        <v>381</v>
+        <v>349</v>
       </c>
       <c r="T142" t="s">
         <v>315</v>
@@ -10531,13 +10533,13 @@
     </row>
     <row r="143" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
-        <v>281</v>
+        <v>173</v>
       </c>
       <c r="B143" t="s">
         <v>0</v>
       </c>
       <c r="C143" t="s">
-        <v>86</v>
+        <v>1</v>
       </c>
       <c r="D143" t="s">
         <v>128</v>
@@ -10546,46 +10548,46 @@
         <v>2</v>
       </c>
       <c r="F143" t="s">
-        <v>66</v>
+        <v>38</v>
       </c>
       <c r="G143">
         <v>536</v>
       </c>
       <c r="H143">
-        <v>169</v>
+        <v>134</v>
       </c>
       <c r="I143" t="s">
-        <v>118</v>
+        <v>39</v>
       </c>
       <c r="J143" t="s">
-        <v>88</v>
+        <v>5</v>
       </c>
       <c r="K143" t="s">
         <v>7</v>
       </c>
       <c r="L143" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="M143">
-        <v>18</v>
+        <v>113</v>
       </c>
       <c r="N143" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="O143">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="P143" t="s">
-        <v>379</v>
+        <v>347</v>
       </c>
       <c r="Q143" t="s">
-        <v>380</v>
+        <v>348</v>
       </c>
       <c r="R143" t="s">
         <v>313</v>
       </c>
       <c r="S143" t="s">
-        <v>381</v>
+        <v>349</v>
       </c>
       <c r="T143" t="s">
         <v>315</v>
@@ -10593,7 +10595,7 @@
     </row>
     <row r="144" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
-        <v>282</v>
+        <v>252</v>
       </c>
       <c r="B144" t="s">
         <v>0</v>
@@ -10608,16 +10610,16 @@
         <v>2</v>
       </c>
       <c r="F144" t="s">
-        <v>68</v>
+        <v>38</v>
       </c>
       <c r="G144">
         <v>536</v>
       </c>
       <c r="H144">
-        <v>170</v>
+        <v>134</v>
       </c>
       <c r="I144" t="s">
-        <v>119</v>
+        <v>104</v>
       </c>
       <c r="J144" t="s">
         <v>88</v>
@@ -10638,16 +10640,16 @@
         <v>2</v>
       </c>
       <c r="P144" t="s">
-        <v>382</v>
-      </c>
-      <c r="Q144">
-        <v>5500</v>
+        <v>347</v>
+      </c>
+      <c r="Q144" t="s">
+        <v>348</v>
       </c>
       <c r="R144" t="s">
         <v>313</v>
       </c>
       <c r="S144" t="s">
-        <v>383</v>
+        <v>349</v>
       </c>
       <c r="T144" t="s">
         <v>315</v>
@@ -10655,7 +10657,7 @@
     </row>
     <row r="145" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A145" t="s">
-        <v>283</v>
+        <v>253</v>
       </c>
       <c r="B145" t="s">
         <v>0</v>
@@ -10670,16 +10672,16 @@
         <v>2</v>
       </c>
       <c r="F145" t="s">
-        <v>68</v>
+        <v>38</v>
       </c>
       <c r="G145">
         <v>536</v>
       </c>
       <c r="H145">
-        <v>170</v>
+        <v>134</v>
       </c>
       <c r="I145" t="s">
-        <v>119</v>
+        <v>104</v>
       </c>
       <c r="J145" t="s">
         <v>88</v>
@@ -10700,16 +10702,16 @@
         <v>2</v>
       </c>
       <c r="P145" t="s">
-        <v>382</v>
-      </c>
-      <c r="Q145">
-        <v>5500</v>
+        <v>347</v>
+      </c>
+      <c r="Q145" t="s">
+        <v>348</v>
       </c>
       <c r="R145" t="s">
         <v>313</v>
       </c>
       <c r="S145" t="s">
-        <v>383</v>
+        <v>349</v>
       </c>
       <c r="T145" t="s">
         <v>315</v>
@@ -10717,13 +10719,13 @@
     </row>
     <row r="146" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A146" t="s">
-        <v>284</v>
+        <v>148</v>
       </c>
       <c r="B146" t="s">
         <v>0</v>
       </c>
       <c r="C146" t="s">
-        <v>86</v>
+        <v>1</v>
       </c>
       <c r="D146" t="s">
         <v>128</v>
@@ -10732,46 +10734,46 @@
         <v>2</v>
       </c>
       <c r="F146" t="s">
-        <v>70</v>
+        <v>14</v>
       </c>
       <c r="G146">
         <v>536</v>
       </c>
       <c r="H146">
-        <v>171</v>
+        <v>101</v>
       </c>
       <c r="I146" t="s">
-        <v>120</v>
+        <v>15</v>
       </c>
       <c r="J146" t="s">
-        <v>88</v>
+        <v>5</v>
       </c>
       <c r="K146" t="s">
         <v>6</v>
       </c>
       <c r="L146" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="M146">
-        <v>18</v>
+        <v>113</v>
       </c>
       <c r="N146" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="O146">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="P146" t="s">
-        <v>384</v>
-      </c>
-      <c r="Q146">
-        <v>4505</v>
+        <v>322</v>
+      </c>
+      <c r="Q146" t="s">
+        <v>323</v>
       </c>
       <c r="R146" t="s">
         <v>313</v>
       </c>
       <c r="S146" t="s">
-        <v>385</v>
+        <v>324</v>
       </c>
       <c r="T146" t="s">
         <v>315</v>
@@ -10779,13 +10781,13 @@
     </row>
     <row r="147" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A147" t="s">
-        <v>285</v>
+        <v>149</v>
       </c>
       <c r="B147" t="s">
         <v>0</v>
       </c>
       <c r="C147" t="s">
-        <v>86</v>
+        <v>1</v>
       </c>
       <c r="D147" t="s">
         <v>128</v>
@@ -10794,46 +10796,46 @@
         <v>2</v>
       </c>
       <c r="F147" t="s">
-        <v>70</v>
+        <v>14</v>
       </c>
       <c r="G147">
         <v>536</v>
       </c>
       <c r="H147">
-        <v>171</v>
+        <v>101</v>
       </c>
       <c r="I147" t="s">
-        <v>120</v>
+        <v>15</v>
       </c>
       <c r="J147" t="s">
-        <v>88</v>
+        <v>5</v>
       </c>
       <c r="K147" t="s">
         <v>7</v>
       </c>
       <c r="L147" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="M147">
-        <v>18</v>
+        <v>113</v>
       </c>
       <c r="N147" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="O147">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="P147" t="s">
-        <v>384</v>
-      </c>
-      <c r="Q147">
-        <v>4505</v>
+        <v>322</v>
+      </c>
+      <c r="Q147" t="s">
+        <v>323</v>
       </c>
       <c r="R147" t="s">
         <v>313</v>
       </c>
       <c r="S147" t="s">
-        <v>385</v>
+        <v>324</v>
       </c>
       <c r="T147" t="s">
         <v>315</v>
@@ -10841,7 +10843,7 @@
     </row>
     <row r="148" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A148" t="s">
-        <v>286</v>
+        <v>228</v>
       </c>
       <c r="B148" t="s">
         <v>0</v>
@@ -10856,16 +10858,16 @@
         <v>2</v>
       </c>
       <c r="F148" t="s">
-        <v>72</v>
+        <v>14</v>
       </c>
       <c r="G148">
         <v>536</v>
       </c>
       <c r="H148">
-        <v>172</v>
+        <v>101</v>
       </c>
       <c r="I148" t="s">
-        <v>121</v>
+        <v>92</v>
       </c>
       <c r="J148" t="s">
         <v>88</v>
@@ -10886,16 +10888,16 @@
         <v>2</v>
       </c>
       <c r="P148" t="s">
-        <v>386</v>
-      </c>
-      <c r="Q148">
-        <v>2025</v>
+        <v>322</v>
+      </c>
+      <c r="Q148" t="s">
+        <v>323</v>
       </c>
       <c r="R148" t="s">
         <v>313</v>
       </c>
       <c r="S148" t="s">
-        <v>387</v>
+        <v>324</v>
       </c>
       <c r="T148" t="s">
         <v>315</v>
@@ -10903,7 +10905,7 @@
     </row>
     <row r="149" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A149" t="s">
-        <v>287</v>
+        <v>229</v>
       </c>
       <c r="B149" t="s">
         <v>0</v>
@@ -10918,16 +10920,16 @@
         <v>2</v>
       </c>
       <c r="F149" t="s">
-        <v>72</v>
+        <v>14</v>
       </c>
       <c r="G149">
         <v>536</v>
       </c>
       <c r="H149">
-        <v>172</v>
+        <v>101</v>
       </c>
       <c r="I149" t="s">
-        <v>121</v>
+        <v>92</v>
       </c>
       <c r="J149" t="s">
         <v>88</v>
@@ -10948,16 +10950,16 @@
         <v>2</v>
       </c>
       <c r="P149" t="s">
-        <v>386</v>
-      </c>
-      <c r="Q149">
-        <v>2025</v>
+        <v>322</v>
+      </c>
+      <c r="Q149" t="s">
+        <v>323</v>
       </c>
       <c r="R149" t="s">
         <v>313</v>
       </c>
       <c r="S149" t="s">
-        <v>387</v>
+        <v>324</v>
       </c>
       <c r="T149" t="s">
         <v>315</v>
@@ -10965,13 +10967,13 @@
     </row>
     <row r="150" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A150" t="s">
-        <v>288</v>
+        <v>178</v>
       </c>
       <c r="B150" t="s">
         <v>0</v>
       </c>
       <c r="C150" t="s">
-        <v>86</v>
+        <v>1</v>
       </c>
       <c r="D150" t="s">
         <v>128</v>
@@ -10980,46 +10982,46 @@
         <v>2</v>
       </c>
       <c r="F150" t="s">
-        <v>74</v>
+        <v>44</v>
       </c>
       <c r="G150">
         <v>536</v>
       </c>
       <c r="H150">
-        <v>173</v>
+        <v>137</v>
       </c>
       <c r="I150" t="s">
-        <v>122</v>
+        <v>45</v>
       </c>
       <c r="J150" t="s">
-        <v>88</v>
+        <v>5</v>
       </c>
       <c r="K150" t="s">
         <v>6</v>
       </c>
       <c r="L150" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="M150">
-        <v>18</v>
+        <v>113</v>
       </c>
       <c r="N150" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="O150">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="P150" t="s">
-        <v>388</v>
-      </c>
-      <c r="Q150">
-        <v>4241</v>
+        <v>354</v>
+      </c>
+      <c r="Q150" t="s">
+        <v>355</v>
       </c>
       <c r="R150" t="s">
         <v>313</v>
       </c>
       <c r="S150" t="s">
-        <v>389</v>
+        <v>356</v>
       </c>
       <c r="T150" t="s">
         <v>315</v>
@@ -11027,13 +11029,13 @@
     </row>
     <row r="151" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A151" t="s">
-        <v>289</v>
+        <v>179</v>
       </c>
       <c r="B151" t="s">
         <v>0</v>
       </c>
       <c r="C151" t="s">
-        <v>86</v>
+        <v>1</v>
       </c>
       <c r="D151" t="s">
         <v>128</v>
@@ -11042,46 +11044,46 @@
         <v>2</v>
       </c>
       <c r="F151" t="s">
-        <v>74</v>
+        <v>44</v>
       </c>
       <c r="G151">
         <v>536</v>
       </c>
       <c r="H151">
-        <v>173</v>
+        <v>137</v>
       </c>
       <c r="I151" t="s">
-        <v>122</v>
+        <v>45</v>
       </c>
       <c r="J151" t="s">
-        <v>88</v>
+        <v>5</v>
       </c>
       <c r="K151" t="s">
         <v>7</v>
       </c>
       <c r="L151" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="M151">
-        <v>18</v>
+        <v>113</v>
       </c>
       <c r="N151" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="O151">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="P151" t="s">
-        <v>388</v>
-      </c>
-      <c r="Q151">
-        <v>4241</v>
+        <v>354</v>
+      </c>
+      <c r="Q151" t="s">
+        <v>355</v>
       </c>
       <c r="R151" t="s">
         <v>313</v>
       </c>
       <c r="S151" t="s">
-        <v>389</v>
+        <v>356</v>
       </c>
       <c r="T151" t="s">
         <v>315</v>
@@ -11089,7 +11091,7 @@
     </row>
     <row r="152" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A152" t="s">
-        <v>290</v>
+        <v>258</v>
       </c>
       <c r="B152" t="s">
         <v>0</v>
@@ -11104,16 +11106,16 @@
         <v>2</v>
       </c>
       <c r="F152" t="s">
-        <v>76</v>
+        <v>44</v>
       </c>
       <c r="G152">
         <v>536</v>
       </c>
       <c r="H152">
-        <v>181</v>
+        <v>137</v>
       </c>
       <c r="I152" t="s">
-        <v>123</v>
+        <v>107</v>
       </c>
       <c r="J152" t="s">
         <v>88</v>
@@ -11134,16 +11136,16 @@
         <v>2</v>
       </c>
       <c r="P152" t="s">
-        <v>390</v>
-      </c>
-      <c r="Q152">
-        <v>1056</v>
+        <v>354</v>
+      </c>
+      <c r="Q152" t="s">
+        <v>355</v>
       </c>
       <c r="R152" t="s">
         <v>313</v>
       </c>
       <c r="S152" t="s">
-        <v>391</v>
+        <v>356</v>
       </c>
       <c r="T152" t="s">
         <v>315</v>
@@ -11151,7 +11153,7 @@
     </row>
     <row r="153" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A153" t="s">
-        <v>291</v>
+        <v>259</v>
       </c>
       <c r="B153" t="s">
         <v>0</v>
@@ -11166,16 +11168,16 @@
         <v>2</v>
       </c>
       <c r="F153" t="s">
-        <v>76</v>
+        <v>44</v>
       </c>
       <c r="G153">
         <v>536</v>
       </c>
       <c r="H153">
-        <v>181</v>
+        <v>137</v>
       </c>
       <c r="I153" t="s">
-        <v>123</v>
+        <v>107</v>
       </c>
       <c r="J153" t="s">
         <v>88</v>
@@ -11196,16 +11198,16 @@
         <v>2</v>
       </c>
       <c r="P153" t="s">
-        <v>390</v>
-      </c>
-      <c r="Q153">
-        <v>1056</v>
+        <v>354</v>
+      </c>
+      <c r="Q153" t="s">
+        <v>355</v>
       </c>
       <c r="R153" t="s">
         <v>313</v>
       </c>
       <c r="S153" t="s">
-        <v>391</v>
+        <v>356</v>
       </c>
       <c r="T153" t="s">
         <v>315</v>
@@ -11213,13 +11215,13 @@
     </row>
     <row r="154" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A154" t="s">
-        <v>292</v>
+        <v>200</v>
       </c>
       <c r="B154" t="s">
         <v>0</v>
       </c>
       <c r="C154" t="s">
-        <v>86</v>
+        <v>1</v>
       </c>
       <c r="D154" t="s">
         <v>128</v>
@@ -11228,46 +11230,46 @@
         <v>2</v>
       </c>
       <c r="F154" t="s">
-        <v>78</v>
+        <v>66</v>
       </c>
       <c r="G154">
         <v>536</v>
       </c>
       <c r="H154">
-        <v>182</v>
+        <v>169</v>
       </c>
       <c r="I154" t="s">
-        <v>124</v>
+        <v>67</v>
       </c>
       <c r="J154" t="s">
-        <v>88</v>
+        <v>5</v>
       </c>
       <c r="K154" t="s">
         <v>6</v>
       </c>
       <c r="L154" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="M154">
-        <v>18</v>
+        <v>113</v>
       </c>
       <c r="N154" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="O154">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="P154" t="s">
-        <v>392</v>
-      </c>
-      <c r="Q154">
-        <v>1128</v>
+        <v>379</v>
+      </c>
+      <c r="Q154" t="s">
+        <v>380</v>
       </c>
       <c r="R154" t="s">
         <v>313</v>
       </c>
       <c r="S154" t="s">
-        <v>393</v>
+        <v>381</v>
       </c>
       <c r="T154" t="s">
         <v>315</v>
@@ -11275,13 +11277,13 @@
     </row>
     <row r="155" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A155" t="s">
-        <v>293</v>
+        <v>201</v>
       </c>
       <c r="B155" t="s">
         <v>0</v>
       </c>
       <c r="C155" t="s">
-        <v>86</v>
+        <v>1</v>
       </c>
       <c r="D155" t="s">
         <v>128</v>
@@ -11290,46 +11292,46 @@
         <v>2</v>
       </c>
       <c r="F155" t="s">
-        <v>78</v>
+        <v>66</v>
       </c>
       <c r="G155">
         <v>536</v>
       </c>
       <c r="H155">
-        <v>182</v>
+        <v>169</v>
       </c>
       <c r="I155" t="s">
-        <v>124</v>
+        <v>67</v>
       </c>
       <c r="J155" t="s">
-        <v>88</v>
+        <v>5</v>
       </c>
       <c r="K155" t="s">
         <v>7</v>
       </c>
       <c r="L155" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="M155">
-        <v>18</v>
+        <v>113</v>
       </c>
       <c r="N155" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="O155">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="P155" t="s">
-        <v>392</v>
-      </c>
-      <c r="Q155">
-        <v>1128</v>
+        <v>379</v>
+      </c>
+      <c r="Q155" t="s">
+        <v>380</v>
       </c>
       <c r="R155" t="s">
         <v>313</v>
       </c>
       <c r="S155" t="s">
-        <v>393</v>
+        <v>381</v>
       </c>
       <c r="T155" t="s">
         <v>315</v>
@@ -11337,7 +11339,7 @@
     </row>
     <row r="156" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A156" t="s">
-        <v>294</v>
+        <v>280</v>
       </c>
       <c r="B156" t="s">
         <v>0</v>
@@ -11352,16 +11354,16 @@
         <v>2</v>
       </c>
       <c r="F156" t="s">
-        <v>80</v>
+        <v>66</v>
       </c>
       <c r="G156">
         <v>536</v>
       </c>
       <c r="H156">
-        <v>183</v>
+        <v>169</v>
       </c>
       <c r="I156" t="s">
-        <v>125</v>
+        <v>118</v>
       </c>
       <c r="J156" t="s">
         <v>88</v>
@@ -11382,16 +11384,16 @@
         <v>2</v>
       </c>
       <c r="P156" t="s">
-        <v>394</v>
-      </c>
-      <c r="Q156">
-        <v>4112</v>
+        <v>379</v>
+      </c>
+      <c r="Q156" t="s">
+        <v>380</v>
       </c>
       <c r="R156" t="s">
         <v>313</v>
       </c>
       <c r="S156" t="s">
-        <v>395</v>
+        <v>381</v>
       </c>
       <c r="T156" t="s">
         <v>315</v>
@@ -11399,7 +11401,7 @@
     </row>
     <row r="157" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A157" t="s">
-        <v>295</v>
+        <v>281</v>
       </c>
       <c r="B157" t="s">
         <v>0</v>
@@ -11414,16 +11416,16 @@
         <v>2</v>
       </c>
       <c r="F157" t="s">
-        <v>80</v>
+        <v>66</v>
       </c>
       <c r="G157">
         <v>536</v>
       </c>
       <c r="H157">
-        <v>183</v>
+        <v>169</v>
       </c>
       <c r="I157" t="s">
-        <v>125</v>
+        <v>118</v>
       </c>
       <c r="J157" t="s">
         <v>88</v>
@@ -11444,16 +11446,16 @@
         <v>2</v>
       </c>
       <c r="P157" t="s">
-        <v>394</v>
-      </c>
-      <c r="Q157">
-        <v>4112</v>
+        <v>379</v>
+      </c>
+      <c r="Q157" t="s">
+        <v>380</v>
       </c>
       <c r="R157" t="s">
         <v>313</v>
       </c>
       <c r="S157" t="s">
-        <v>395</v>
+        <v>381</v>
       </c>
       <c r="T157" t="s">
         <v>315</v>
@@ -11461,13 +11463,13 @@
     </row>
     <row r="158" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A158" t="s">
-        <v>296</v>
+        <v>180</v>
       </c>
       <c r="B158" t="s">
         <v>0</v>
       </c>
       <c r="C158" t="s">
-        <v>86</v>
+        <v>1</v>
       </c>
       <c r="D158" t="s">
         <v>128</v>
@@ -11476,46 +11478,46 @@
         <v>2</v>
       </c>
       <c r="F158" t="s">
-        <v>82</v>
+        <v>46</v>
       </c>
       <c r="G158">
         <v>536</v>
       </c>
       <c r="H158">
-        <v>184</v>
+        <v>145</v>
       </c>
       <c r="I158" t="s">
-        <v>126</v>
+        <v>47</v>
       </c>
       <c r="J158" t="s">
-        <v>88</v>
+        <v>5</v>
       </c>
       <c r="K158" t="s">
         <v>6</v>
       </c>
       <c r="L158" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="M158">
-        <v>18</v>
+        <v>113</v>
       </c>
       <c r="N158" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="O158">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="P158" t="s">
-        <v>396</v>
-      </c>
-      <c r="Q158">
-        <v>4507</v>
+        <v>357</v>
+      </c>
+      <c r="Q158" t="s">
+        <v>358</v>
       </c>
       <c r="R158" t="s">
         <v>313</v>
       </c>
       <c r="S158" t="s">
-        <v>397</v>
+        <v>359</v>
       </c>
       <c r="T158" t="s">
         <v>315</v>
@@ -11523,13 +11525,13 @@
     </row>
     <row r="159" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A159" t="s">
-        <v>297</v>
+        <v>181</v>
       </c>
       <c r="B159" t="s">
         <v>0</v>
       </c>
       <c r="C159" t="s">
-        <v>86</v>
+        <v>1</v>
       </c>
       <c r="D159" t="s">
         <v>128</v>
@@ -11538,46 +11540,46 @@
         <v>2</v>
       </c>
       <c r="F159" t="s">
-        <v>82</v>
+        <v>46</v>
       </c>
       <c r="G159">
         <v>536</v>
       </c>
       <c r="H159">
-        <v>184</v>
+        <v>145</v>
       </c>
       <c r="I159" t="s">
-        <v>126</v>
+        <v>47</v>
       </c>
       <c r="J159" t="s">
-        <v>88</v>
+        <v>5</v>
       </c>
       <c r="K159" t="s">
         <v>7</v>
       </c>
       <c r="L159" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="M159">
-        <v>18</v>
+        <v>113</v>
       </c>
       <c r="N159" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="O159">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="P159" t="s">
-        <v>396</v>
-      </c>
-      <c r="Q159">
-        <v>4507</v>
+        <v>357</v>
+      </c>
+      <c r="Q159" t="s">
+        <v>358</v>
       </c>
       <c r="R159" t="s">
         <v>313</v>
       </c>
       <c r="S159" t="s">
-        <v>397</v>
+        <v>359</v>
       </c>
       <c r="T159" t="s">
         <v>315</v>
@@ -11585,7 +11587,7 @@
     </row>
     <row r="160" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A160" t="s">
-        <v>298</v>
+        <v>260</v>
       </c>
       <c r="B160" t="s">
         <v>0</v>
@@ -11600,16 +11602,16 @@
         <v>2</v>
       </c>
       <c r="F160" t="s">
-        <v>84</v>
+        <v>46</v>
       </c>
       <c r="G160">
         <v>536</v>
       </c>
       <c r="H160">
-        <v>185</v>
+        <v>145</v>
       </c>
       <c r="I160" t="s">
-        <v>127</v>
+        <v>108</v>
       </c>
       <c r="J160" t="s">
         <v>88</v>
@@ -11630,16 +11632,16 @@
         <v>2</v>
       </c>
       <c r="P160" t="s">
-        <v>398</v>
-      </c>
-      <c r="Q160">
-        <v>5509</v>
+        <v>357</v>
+      </c>
+      <c r="Q160" t="s">
+        <v>358</v>
       </c>
       <c r="R160" t="s">
         <v>313</v>
       </c>
       <c r="S160" t="s">
-        <v>399</v>
+        <v>359</v>
       </c>
       <c r="T160" t="s">
         <v>315</v>
@@ -11647,7 +11649,7 @@
     </row>
     <row r="161" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A161" t="s">
-        <v>299</v>
+        <v>261</v>
       </c>
       <c r="B161" t="s">
         <v>0</v>
@@ -11662,16 +11664,16 @@
         <v>2</v>
       </c>
       <c r="F161" t="s">
-        <v>84</v>
+        <v>46</v>
       </c>
       <c r="G161">
         <v>536</v>
       </c>
       <c r="H161">
-        <v>185</v>
+        <v>145</v>
       </c>
       <c r="I161" t="s">
-        <v>127</v>
+        <v>108</v>
       </c>
       <c r="J161" t="s">
         <v>88</v>
@@ -11692,22 +11694,25 @@
         <v>2</v>
       </c>
       <c r="P161" t="s">
-        <v>398</v>
-      </c>
-      <c r="Q161">
-        <v>5509</v>
+        <v>357</v>
+      </c>
+      <c r="Q161" t="s">
+        <v>358</v>
       </c>
       <c r="R161" t="s">
         <v>313</v>
       </c>
       <c r="S161" t="s">
-        <v>399</v>
+        <v>359</v>
       </c>
       <c r="T161" t="s">
         <v>315</v>
       </c>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:T161">
+    <sortCondition ref="Q2:Q161"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
